--- a/AAII_Financials/Quarterly/RMBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RMBI_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>RMBI</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,98 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F8" s="3">
         <v>10800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>10400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>9800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>9500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>9000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>8600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>8200</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -771,8 +784,14 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,8 +819,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +838,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +904,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,8 +939,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E17" s="3">
         <v>3600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G17" s="3">
         <v>3400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2100</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7200</v>
+        <v>7700</v>
       </c>
       <c r="E18" s="3">
         <v>7000</v>
       </c>
       <c r="F18" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>7000</v>
+      </c>
+      <c r="H18" s="3">
         <v>6600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>6800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>6500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>6400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>6100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,66 +1075,80 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-11300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-6700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-4900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-5100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-4500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-4700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-4600</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>2000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>2000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>2300</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>1800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,66 +1176,84 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1700</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H23" s="3">
-        <v>2000</v>
       </c>
       <c r="I23" s="3">
         <v>1700</v>
       </c>
       <c r="J23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L23" s="3">
         <v>1500</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F24" s="3">
         <v>-900</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>300</v>
-      </c>
-      <c r="H24" s="3">
-        <v>400</v>
       </c>
       <c r="I24" s="3">
         <v>300</v>
       </c>
       <c r="J24" s="3">
+        <v>400</v>
+      </c>
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>300</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1200</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1200</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>24200</v>
+      </c>
+      <c r="F32" s="3">
         <v>11300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>6700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>4900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>5100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>4500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>4700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>4600</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1200</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1200</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,8 +1705,10 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1543,17 +1716,17 @@
         <v>10500</v>
       </c>
       <c r="E41" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>10500</v>
+      </c>
+      <c r="G41" s="3">
         <v>8000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>8900</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1563,26 +1736,32 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>39100</v>
+      </c>
+      <c r="F42" s="3">
         <v>38500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>201900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>29000</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1592,8 +1771,14 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1621,8 +1806,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,8 +1841,14 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1679,8 +1876,14 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1708,8 +1911,14 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,8 +1946,14 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1746,16 +1961,16 @@
         <v>14000</v>
       </c>
       <c r="E48" s="3">
-        <v>13900</v>
+        <v>14100</v>
       </c>
       <c r="F48" s="3">
         <v>14000</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+      <c r="G48" s="3">
+        <v>13900</v>
+      </c>
+      <c r="H48" s="3">
+        <v>14000</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1766,25 +1981,31 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="E49" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F49" s="3">
         <v>1200</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+      <c r="G49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H49" s="3">
+        <v>1200</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1795,8 +2016,14 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +2086,14 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1882,8 +2121,14 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,26 +2156,32 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1007600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>986000</v>
+      </c>
+      <c r="F54" s="3">
         <v>956200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1083000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>882800</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1940,8 +2191,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,26 +2225,28 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1995,8 +2256,14 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2024,8 +2291,14 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2053,8 +2326,14 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2082,8 +2361,14 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2091,16 +2376,16 @@
         <v>600</v>
       </c>
       <c r="E61" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F61" s="3">
         <v>600</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2111,37 +2396,49 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>17500</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>17500</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,26 +2536,32 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>814400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>798300</v>
+      </c>
+      <c r="F66" s="3">
         <v>755900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>992000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>793700</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2256,8 +2571,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,26 +2726,32 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>72600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>70100</v>
+      </c>
+      <c r="F72" s="3">
         <v>82700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>79200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>78900</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2761,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,26 +2866,32 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>193200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>187800</v>
+      </c>
+      <c r="F76" s="3">
         <v>200400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>91000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>89100</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,8 +2901,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1200</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +3030,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2655,17 +3052,23 @@
       <c r="H83" s="3">
         <v>300</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>300</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F89" s="3">
         <v>2400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>2900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>7600</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3290,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-300</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="I91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-200</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-35400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-28900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-16200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-29900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-24500</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,37 +3581,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>22300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-128100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>197500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>30500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>33400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>10200</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,33 +3651,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-161000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>171500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>16000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>5300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-6700</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RMBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RMBI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>RMBI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,67 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -729,34 +733,37 @@
         <v>10500</v>
       </c>
       <c r="E8" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F8" s="3">
         <v>10600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8200</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -790,8 +797,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +835,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,8 +965,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E17" s="3">
         <v>2800</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3600</v>
       </c>
       <c r="F17" s="3">
         <v>3600</v>
       </c>
       <c r="G17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H17" s="3">
         <v>3400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2100</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E18" s="3">
         <v>7700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6100</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,78 +1110,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-24200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-11300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4600</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E21" s="3">
         <v>3400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-17000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>600</v>
-      </c>
-      <c r="H21" s="3">
-        <v>2000</v>
       </c>
       <c r="I21" s="3">
         <v>2000</v>
       </c>
       <c r="J21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K21" s="3">
         <v>2300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>1800</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,8 +1222,11 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1191,69 +1234,75 @@
         <v>3100</v>
       </c>
       <c r="E23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-17200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1700</v>
       </c>
       <c r="I23" s="3">
         <v>1700</v>
       </c>
       <c r="J23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K23" s="3">
         <v>2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1500</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-4700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-900</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>300</v>
       </c>
       <c r="J24" s="3">
+        <v>300</v>
+      </c>
+      <c r="K24" s="3">
         <v>400</v>
-      </c>
-      <c r="K24" s="3">
-        <v>300</v>
       </c>
       <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>300</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,8 +1336,11 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1296,34 +1348,37 @@
         <v>2500</v>
       </c>
       <c r="E26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-12500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1200</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1331,34 +1386,37 @@
         <v>2500</v>
       </c>
       <c r="E27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-12500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1200</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,43 +1564,49 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E32" s="3">
         <v>4600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>24200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>11300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4600</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1541,34 +1614,37 @@
         <v>2500</v>
       </c>
       <c r="E33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-12500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1200</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,8 +1678,11 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1611,74 +1690,80 @@
         <v>2500</v>
       </c>
       <c r="E35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-12500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1200</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,29 +1793,30 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E41" s="3">
         <v>10500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8900</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1742,29 +1829,32 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>88900</v>
+      </c>
+      <c r="E42" s="3">
         <v>25600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>39100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>38500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>201900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>29000</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1777,8 +1867,11 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1812,8 +1905,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,8 +1943,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1882,8 +1981,11 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1917,8 +2019,11 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,29 +2057,32 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E48" s="3">
         <v>14000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14000</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1987,19 +2095,22 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E49" s="3">
         <v>900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1000</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1200</v>
       </c>
       <c r="G49" s="3">
         <v>1200</v>
@@ -2007,8 +2118,8 @@
       <c r="H49" s="3">
         <v>1200</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+      <c r="I49" s="3">
+        <v>1200</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2209,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,29 +2285,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1140200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1007600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>986000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>956200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1083000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>882800</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2197,8 +2323,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,29 +2357,30 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2262,8 +2393,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2297,8 +2431,11 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2332,8 +2469,11 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2367,19 +2507,22 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>500</v>
+      </c>
+      <c r="E61" s="3">
         <v>600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>500</v>
-      </c>
-      <c r="F61" s="3">
-        <v>600</v>
       </c>
       <c r="G61" s="3">
         <v>600</v>
@@ -2388,7 +2531,7 @@
         <v>600</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2402,8 +2545,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2413,8 +2559,8 @@
       <c r="E62" s="3">
         <v>17500</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+      <c r="F62" s="3">
+        <v>17500</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2428,8 +2574,8 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,29 +2697,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>944100</v>
+      </c>
+      <c r="E66" s="3">
         <v>814400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>798300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>755900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>992000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>793700</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2577,8 +2735,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,29 +2903,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>74400</v>
+      </c>
+      <c r="E72" s="3">
         <v>72600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>70100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>82700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>79200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>78900</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2767,8 +2941,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,29 +3055,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>196100</v>
+      </c>
+      <c r="E76" s="3">
         <v>193200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>187800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>200400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>91000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>89100</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2907,8 +3093,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,48 +3131,54 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2991,34 +3186,37 @@
         <v>2500</v>
       </c>
       <c r="E81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-12500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1200</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3058,8 +3257,8 @@
       <c r="J83" s="3">
         <v>300</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>300</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E89" s="3">
         <v>4800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7600</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3512,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-300</v>
       </c>
       <c r="F91" s="3">
         <v>-300</v>
       </c>
       <c r="G91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
       </c>
       <c r="I91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3624,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-50700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-34000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-26300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-35400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-28900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-16200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-29900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-24500</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,43 +3830,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>131200</v>
+      </c>
+      <c r="E100" s="3">
         <v>16100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>22300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-128100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>197500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>30500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>33400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>10200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,39 +3906,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>83200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-13100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-161000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>171500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>16000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6700</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RMBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RMBI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
   <si>
     <t>RMBI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,105 +665,112 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>10500</v>
+        <v>10600</v>
       </c>
       <c r="E8" s="3">
         <v>10500</v>
       </c>
       <c r="F8" s="3">
+        <v>10500</v>
+      </c>
+      <c r="G8" s="3">
         <v>10600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8200</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -800,8 +807,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +848,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +906,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +947,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,8 +988,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E17" s="3">
         <v>3800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2800</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3600</v>
       </c>
       <c r="G17" s="3">
         <v>3600</v>
       </c>
       <c r="H17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I17" s="3">
         <v>3400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2100</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E18" s="3">
         <v>6700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6100</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,84 +1144,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-24200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-11300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4600</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E21" s="3">
         <v>3500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-17000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>600</v>
-      </c>
-      <c r="I21" s="3">
-        <v>2000</v>
       </c>
       <c r="J21" s="3">
         <v>2000</v>
       </c>
       <c r="K21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L21" s="3">
         <v>2300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>1800</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,8 +1265,11 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1237,34 +1280,37 @@
         <v>3100</v>
       </c>
       <c r="F23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-17200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1700</v>
       </c>
       <c r="J23" s="3">
         <v>1700</v>
       </c>
       <c r="K23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L23" s="3">
         <v>2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1500</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1272,37 +1318,40 @@
         <v>600</v>
       </c>
       <c r="E24" s="3">
+        <v>600</v>
+      </c>
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-4700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-900</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>300</v>
       </c>
       <c r="K24" s="3">
+        <v>300</v>
+      </c>
+      <c r="L24" s="3">
         <v>400</v>
-      </c>
-      <c r="L24" s="3">
-        <v>300</v>
       </c>
       <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>300</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,8 +1388,11 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1351,34 +1403,37 @@
         <v>2500</v>
       </c>
       <c r="F26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G26" s="3">
         <v>-12500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1200</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1389,34 +1444,37 @@
         <v>2500</v>
       </c>
       <c r="F27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G27" s="3">
         <v>-12500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1200</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,46 +1634,52 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E32" s="3">
         <v>3600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>24200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>11300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4600</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1617,34 +1690,37 @@
         <v>2500</v>
       </c>
       <c r="F33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G33" s="3">
         <v>-12500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1200</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,8 +1757,11 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1693,77 +1772,83 @@
         <v>2500</v>
       </c>
       <c r="F35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G35" s="3">
         <v>-12500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1200</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,32 +1880,33 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E41" s="3">
         <v>30800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8900</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1832,32 +1919,35 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E42" s="3">
         <v>88900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>25600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>39100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>38500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>201900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>29000</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1870,8 +1960,11 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1908,8 +2001,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,8 +2042,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1984,8 +2083,11 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2022,8 +2124,11 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,32 +2165,35 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E48" s="3">
         <v>14400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14000</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,22 +2206,25 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E49" s="3">
         <v>1400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1000</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1200</v>
       </c>
       <c r="H49" s="3">
         <v>1200</v>
@@ -2121,8 +2232,8 @@
       <c r="I49" s="3">
         <v>1200</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="J49" s="3">
+        <v>1200</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2136,8 +2247,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2329,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2250,8 +2370,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,32 +2411,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1054900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1140200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1007600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>986000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>956200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1083000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>882800</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2326,8 +2452,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,32 +2488,33 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2396,8 +2527,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2434,8 +2568,11 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2472,8 +2609,11 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2510,22 +2650,25 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>600</v>
+      </c>
+      <c r="E61" s="3">
         <v>500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>500</v>
-      </c>
-      <c r="G61" s="3">
-        <v>600</v>
       </c>
       <c r="H61" s="3">
         <v>600</v>
@@ -2534,7 +2677,7 @@
         <v>600</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2548,8 +2691,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2562,8 +2708,8 @@
       <c r="F62" s="3">
         <v>17500</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+      <c r="G62" s="3">
+        <v>17500</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2577,8 +2723,8 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,32 +2855,35 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>863200</v>
+      </c>
+      <c r="E66" s="3">
         <v>944100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>814400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>798300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>755900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>992000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>793700</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +2896,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,32 +3077,35 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>76400</v>
+      </c>
+      <c r="E72" s="3">
         <v>74400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>72600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>70100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>82700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>79200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>78900</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2944,8 +3118,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,32 +3241,35 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>191700</v>
+      </c>
+      <c r="E76" s="3">
         <v>196100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>193200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>187800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>200400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>91000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>89100</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3096,8 +3282,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,51 +3323,57 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3189,34 +3384,37 @@
         <v>2500</v>
       </c>
       <c r="F81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G81" s="3">
         <v>-12500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1200</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,13 +3429,14 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E83" s="3">
         <v>300</v>
@@ -3260,8 +3459,8 @@
       <c r="K83" s="3">
         <v>300</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>300</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -3269,8 +3468,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
         <v>2700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7600</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3733,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-300</v>
       </c>
       <c r="G91" s="3">
         <v>-300</v>
       </c>
       <c r="H91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="I91" s="3">
         <v>-200</v>
       </c>
       <c r="J91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3854,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-50700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-34000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-26300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-35400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-28900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-16200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-29900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-24500</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,13 +3914,14 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4076,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-87200</v>
+      </c>
+      <c r="E100" s="3">
         <v>131200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>16100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>22300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-128100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>197500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>30500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>33400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>10200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4158,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-93900</v>
+      </c>
+      <c r="E102" s="3">
         <v>83200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-13100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-161000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>171500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>16000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6700</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RMBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RMBI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
   <si>
     <t>RMBI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,78 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -737,40 +744,46 @@
         <v>10600</v>
       </c>
       <c r="E8" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F8" s="3">
+        <v>10600</v>
+      </c>
+      <c r="G8" s="3">
         <v>10500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>10500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>10600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>10800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>10400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>9800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>9500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>9000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>8600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>8200</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -810,8 +823,14 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +870,14 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +893,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +936,14 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +983,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -991,8 +1030,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1077,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1097,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F17" s="3">
         <v>3600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2100</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F18" s="3">
         <v>7000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>6700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>7700</v>
-      </c>
-      <c r="G18" s="3">
-        <v>7000</v>
-      </c>
-      <c r="H18" s="3">
-        <v>7200</v>
       </c>
       <c r="I18" s="3">
         <v>7000</v>
       </c>
       <c r="J18" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K18" s="3">
+        <v>7000</v>
+      </c>
+      <c r="L18" s="3">
         <v>6600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>6800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>6500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>6400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>6100</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,49 +1210,57 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-3600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-4600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-24200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-11300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-6700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-4900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-5100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-4500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-4700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-4600</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1198,37 +1271,43 @@
         <v>3500</v>
       </c>
       <c r="F21" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G21" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H21" s="3">
         <v>3400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-17000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-3900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>2000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>2000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>2300</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>1800</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1268,13 +1347,19 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="E23" s="3">
         <v>3100</v>
@@ -1283,34 +1368,40 @@
         <v>3100</v>
       </c>
       <c r="G23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-17200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-4100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1700</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1700</v>
-      </c>
-      <c r="L23" s="3">
-        <v>2000</v>
       </c>
       <c r="M23" s="3">
         <v>1700</v>
       </c>
       <c r="N23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P23" s="3">
         <v>1500</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1321,37 +1412,43 @@
         <v>600</v>
       </c>
       <c r="F24" s="3">
+        <v>600</v>
+      </c>
+      <c r="G24" s="3">
+        <v>600</v>
+      </c>
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-4700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-900</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>300</v>
-      </c>
-      <c r="L24" s="3">
-        <v>400</v>
       </c>
       <c r="M24" s="3">
         <v>300</v>
       </c>
       <c r="N24" s="3">
+        <v>400</v>
+      </c>
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,13 +1488,19 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E26" s="3">
         <v>2500</v>
@@ -1406,39 +1509,45 @@
         <v>2500</v>
       </c>
       <c r="G26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I26" s="3">
         <v>-12500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1200</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E27" s="3">
         <v>2500</v>
@@ -1447,34 +1556,40 @@
         <v>2500</v>
       </c>
       <c r="G27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I27" s="3">
         <v>-12500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1200</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,54 +1770,66 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F32" s="3">
         <v>3800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>3600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>4600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>24200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>11300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>6700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>4900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>5100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>4500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>4700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>4600</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E33" s="3">
         <v>2500</v>
@@ -1693,34 +1838,40 @@
         <v>2500</v>
       </c>
       <c r="G33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I33" s="3">
         <v>-12500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1200</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,13 +1911,19 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E35" s="3">
         <v>2500</v>
@@ -1775,80 +1932,92 @@
         <v>2500</v>
       </c>
       <c r="G35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I35" s="3">
         <v>-12500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1200</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,38 +2052,40 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F41" s="3">
         <v>11700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>30800</v>
-      </c>
-      <c r="F41" s="3">
-        <v>10500</v>
-      </c>
-      <c r="G41" s="3">
-        <v>9100</v>
       </c>
       <c r="H41" s="3">
         <v>10500</v>
       </c>
       <c r="I41" s="3">
+        <v>9100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K41" s="3">
         <v>8000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>8900</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1922,38 +2095,44 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>60900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>41100</v>
+      </c>
+      <c r="F42" s="3">
         <v>14200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>88900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>25600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>39100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>38500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>201900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>29000</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1963,8 +2142,14 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2004,8 +2189,14 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,8 +2236,14 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2086,8 +2283,14 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2127,8 +2330,14 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,37 +2377,43 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>14900</v>
+      </c>
+      <c r="F48" s="3">
         <v>14800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>14400</v>
-      </c>
-      <c r="F48" s="3">
-        <v>14000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>14100</v>
       </c>
       <c r="H48" s="3">
         <v>14000</v>
       </c>
       <c r="I48" s="3">
-        <v>13900</v>
+        <v>14100</v>
       </c>
       <c r="J48" s="3">
         <v>14000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
+      <c r="K48" s="3">
+        <v>13900</v>
+      </c>
+      <c r="L48" s="3">
+        <v>14000</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
@@ -2209,37 +2424,43 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F49" s="3">
         <v>1500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1000</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1200</v>
       </c>
       <c r="J49" s="3">
         <v>1200</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
+      <c r="K49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L49" s="3">
+        <v>1200</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
@@ -2250,8 +2471,14 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2565,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2373,8 +2612,14 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,38 +2659,44 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1140900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1084200</v>
+      </c>
+      <c r="F54" s="3">
         <v>1054900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1140200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1007600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>986000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>956200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1083000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>882800</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2455,8 +2706,14 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,8 +2748,10 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2498,29 +2759,29 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
       </c>
       <c r="H57" s="3">
+        <v>400</v>
+      </c>
+      <c r="I57" s="3">
+        <v>300</v>
+      </c>
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,8 +2791,14 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2571,8 +2838,14 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2612,8 +2885,14 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2653,13 +2932,19 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E61" s="3">
         <v>500</v>
@@ -2674,16 +2959,16 @@
         <v>600</v>
       </c>
       <c r="I61" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J61" s="3">
         <v>600</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -2694,8 +2979,14 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2711,11 +3002,11 @@
       <c r="G62" s="3">
         <v>17500</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>17500</v>
+      </c>
+      <c r="I62" s="3">
+        <v>17500</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2726,17 +3017,23 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,38 +3167,44 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>951400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>891500</v>
+      </c>
+      <c r="F66" s="3">
         <v>863200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>944100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>814400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>798300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>755900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>992000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>793700</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2899,8 +3214,14 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,38 +3421,44 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>78300</v>
+      </c>
+      <c r="F72" s="3">
         <v>76400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>74400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>72600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>70100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>82700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>79200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>78900</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3121,8 +3468,14 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,38 +3609,44 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>189500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>192700</v>
+      </c>
+      <c r="F76" s="3">
         <v>191700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>196100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>193200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>187800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>200400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>91000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>89100</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3285,8 +3656,14 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,59 +3703,71 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E81" s="3">
         <v>2500</v>
@@ -3387,34 +3776,40 @@
         <v>2500</v>
       </c>
       <c r="G81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I81" s="3">
         <v>-12500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1200</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3825,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3439,10 +3836,10 @@
         <v>400</v>
       </c>
       <c r="E83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
@@ -3462,17 +3859,23 @@
       <c r="L83" s="3">
         <v>300</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>300</v>
+      </c>
+      <c r="N83" s="3">
+        <v>300</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +4103,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>2700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>4800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>3200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>2400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>2900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>7600</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,49 +4173,57 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-300</v>
       </c>
       <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-200</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4310,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-6800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-50700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-34000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-26300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-35400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-28900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-16200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-29900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-24500</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,19 +4380,21 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-600</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3956,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,49 +4564,61 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>61300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>20800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-87200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>131200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>16100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>22300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-128100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>197500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>30500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>33400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>10200</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,45 +4658,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>32100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-93900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>83200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-13100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-161000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>171500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>16000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>5300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-6700</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RMBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RMBI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>RMBI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,132 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E8" s="3">
         <v>10600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10600</v>
-      </c>
-      <c r="G8" s="3">
-        <v>10500</v>
       </c>
       <c r="H8" s="3">
         <v>10500</v>
       </c>
       <c r="I8" s="3">
+        <v>10500</v>
+      </c>
+      <c r="J8" s="3">
         <v>10600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8200</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,55 +1125,59 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E17" s="3">
         <v>2300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2800</v>
-      </c>
-      <c r="I17" s="3">
-        <v>3600</v>
       </c>
       <c r="J17" s="3">
         <v>3600</v>
       </c>
       <c r="K17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L17" s="3">
         <v>3400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2100</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,46 +1185,49 @@
         <v>8300</v>
       </c>
       <c r="E18" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F18" s="3">
         <v>7800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6100</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1245,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-24200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-11300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E21" s="3">
         <v>3600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-17000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>600</v>
-      </c>
-      <c r="L21" s="3">
-        <v>2000</v>
       </c>
       <c r="M21" s="3">
         <v>2000</v>
       </c>
       <c r="N21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O21" s="3">
         <v>2300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>1800</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,16 +1393,19 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E23" s="3">
         <v>3200</v>
-      </c>
-      <c r="E23" s="3">
-        <v>3100</v>
       </c>
       <c r="F23" s="3">
         <v>3100</v>
@@ -1374,34 +1417,37 @@
         <v>3100</v>
       </c>
       <c r="I23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-17200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>1700</v>
       </c>
       <c r="M23" s="3">
         <v>1700</v>
       </c>
       <c r="N23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O23" s="3">
         <v>2000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1500</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1418,37 +1464,40 @@
         <v>600</v>
       </c>
       <c r="H24" s="3">
+        <v>600</v>
+      </c>
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-4700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-900</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3">
         <v>300</v>
       </c>
       <c r="N24" s="3">
+        <v>300</v>
+      </c>
+      <c r="O24" s="3">
         <v>400</v>
-      </c>
-      <c r="O24" s="3">
-        <v>300</v>
       </c>
       <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>300</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,16 +1543,19 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E26" s="3">
         <v>2600</v>
-      </c>
-      <c r="E26" s="3">
-        <v>2500</v>
       </c>
       <c r="F26" s="3">
         <v>2500</v>
@@ -1515,42 +1567,45 @@
         <v>2500</v>
       </c>
       <c r="I26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J26" s="3">
         <v>-12500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1200</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E27" s="3">
         <v>2600</v>
-      </c>
-      <c r="E27" s="3">
-        <v>2500</v>
       </c>
       <c r="F27" s="3">
         <v>2500</v>
@@ -1562,34 +1617,37 @@
         <v>2500</v>
       </c>
       <c r="I27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J27" s="3">
         <v>-12500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1200</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,63 +1843,69 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E32" s="3">
         <v>5200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>24200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>11300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4600</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E33" s="3">
         <v>2600</v>
-      </c>
-      <c r="E33" s="3">
-        <v>2500</v>
       </c>
       <c r="F33" s="3">
         <v>2500</v>
@@ -1844,34 +1917,37 @@
         <v>2500</v>
       </c>
       <c r="I33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J33" s="3">
         <v>-12500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1200</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,16 +1993,19 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E35" s="3">
         <v>2600</v>
-      </c>
-      <c r="E35" s="3">
-        <v>2500</v>
       </c>
       <c r="F35" s="3">
         <v>2500</v>
@@ -1938,86 +2017,92 @@
         <v>2500</v>
       </c>
       <c r="I35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J35" s="3">
         <v>-12500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1200</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,41 +2140,42 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E41" s="3">
         <v>13700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>30800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8900</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2101,41 +2188,44 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E42" s="3">
         <v>60900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>41100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>14200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>88900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>25600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>39100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>38500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>201900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>29000</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2388,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,8 +2438,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,41 +2488,44 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E48" s="3">
         <v>14700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14000</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2430,31 +2538,34 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="E49" s="3">
         <v>1700</v>
       </c>
       <c r="F49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G49" s="3">
         <v>1500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1000</v>
-      </c>
-      <c r="J49" s="3">
-        <v>1200</v>
       </c>
       <c r="K49" s="3">
         <v>1200</v>
@@ -2462,8 +2573,8 @@
       <c r="L49" s="3">
         <v>1200</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
+      <c r="M49" s="3">
+        <v>1200</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,41 +2788,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1188500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1140900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1084200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1054900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1140200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1007600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>986000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>956200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1083000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>882800</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2880,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2765,26 +2896,26 @@
         <v>200</v>
       </c>
       <c r="G57" s="3">
+        <v>200</v>
+      </c>
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2797,8 +2928,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,8 +2978,11 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2891,8 +3028,11 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2938,8 +3078,11 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2950,19 +3093,19 @@
         <v>500</v>
       </c>
       <c r="F61" s="3">
+        <v>500</v>
+      </c>
+      <c r="G61" s="3">
         <v>600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>500</v>
-      </c>
-      <c r="J61" s="3">
-        <v>600</v>
       </c>
       <c r="K61" s="3">
         <v>600</v>
@@ -2971,7 +3114,7 @@
         <v>600</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -2985,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3008,8 +3154,8 @@
       <c r="I62" s="3">
         <v>17500</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>17500</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -3023,8 +3169,8 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,41 +3328,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1005900</v>
+      </c>
+      <c r="E66" s="3">
         <v>951400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>891500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>863200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>944100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>814400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>798300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>755900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>992000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>793700</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,41 +3598,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E72" s="3">
         <v>80000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>78300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>76400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>74400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>72600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>70100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>82700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>79200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>78900</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,41 +3798,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>182600</v>
+      </c>
+      <c r="E76" s="3">
         <v>189500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>192700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>191700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>196100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>193200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>187800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>200400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>91000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>89100</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,68 +3898,74 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E81" s="3">
         <v>2600</v>
-      </c>
-      <c r="E81" s="3">
-        <v>2500</v>
       </c>
       <c r="F81" s="3">
         <v>2500</v>
@@ -3782,34 +3977,37 @@
         <v>2500</v>
       </c>
       <c r="I81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J81" s="3">
         <v>-12500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1200</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3842,7 +4041,7 @@
         <v>400</v>
       </c>
       <c r="G83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H83" s="3">
         <v>300</v>
@@ -3865,8 +4064,8 @@
       <c r="N83" s="3">
         <v>300</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>300</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>9000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7600</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-300</v>
       </c>
       <c r="J91" s="3">
         <v>-300</v>
       </c>
       <c r="K91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L91" s="3">
         <v>-200</v>
       </c>
       <c r="M91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-91300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-42100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>2200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-50700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-34000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-26300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-35400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-28900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-16200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-29900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-24500</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,22 +4615,23 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-800</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-600</v>
       </c>
       <c r="F96" s="3">
         <v>-600</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E100" s="3">
         <v>61300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>20800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-87200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>131200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>16100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>22300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-128100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>197500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>30500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>33400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>10200</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-48400</v>
+      </c>
+      <c r="E102" s="3">
         <v>16800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>32100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-93900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>83200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-13100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-161000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>171500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>16000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6700</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RMBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RMBI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
   <si>
     <t>RMBI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,132 +665,139 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>22000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>10600</v>
+      </c>
+      <c r="G8" s="3">
         <v>10800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="H8" s="3">
+        <v>10700</v>
+      </c>
+      <c r="I8" s="3">
+        <v>21100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K8" s="3">
         <v>10600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="L8" s="3">
         <v>10800</v>
       </c>
-      <c r="G8" s="3">
-        <v>10600</v>
-      </c>
-      <c r="H8" s="3">
-        <v>10500</v>
-      </c>
-      <c r="I8" s="3">
-        <v>10500</v>
-      </c>
-      <c r="J8" s="3">
-        <v>10600</v>
-      </c>
-      <c r="K8" s="3">
-        <v>10800</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8200</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +846,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="E17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F17" s="3">
         <v>2300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3600</v>
       </c>
-      <c r="H17" s="3">
-        <v>3800</v>
-      </c>
       <c r="I17" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J17" s="3">
         <v>2800</v>
-      </c>
-      <c r="J17" s="3">
-        <v>3600</v>
       </c>
       <c r="K17" s="3">
         <v>3600</v>
       </c>
       <c r="L17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M17" s="3">
         <v>3400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2100</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>17300</v>
+      </c>
+      <c r="F18" s="3">
         <v>8300</v>
       </c>
-      <c r="E18" s="3">
-        <v>8300</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>7100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>14500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K18" s="3">
         <v>7000</v>
       </c>
-      <c r="H18" s="3">
-        <v>6700</v>
-      </c>
-      <c r="I18" s="3">
-        <v>7700</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
+        <v>7200</v>
+      </c>
+      <c r="M18" s="3">
         <v>7000</v>
       </c>
-      <c r="K18" s="3">
-        <v>7200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>7000</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6100</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,108 +1279,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="N20" s="3">
         <v>-4900</v>
       </c>
-      <c r="E20" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="O20" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-4700</v>
       </c>
-      <c r="G20" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="R20" s="3">
         <v>-4600</v>
       </c>
-      <c r="J20" s="3">
-        <v>-24200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-11300</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="E21" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F21" s="3">
         <v>3600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3600</v>
       </c>
-      <c r="H21" s="3">
-        <v>3500</v>
-      </c>
       <c r="I21" s="3">
+        <v>6900</v>
+      </c>
+      <c r="J21" s="3">
         <v>3400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-17000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>600</v>
-      </c>
-      <c r="M21" s="3">
-        <v>2000</v>
       </c>
       <c r="N21" s="3">
         <v>2000</v>
       </c>
       <c r="O21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P21" s="3">
         <v>2300</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>1800</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,19 +1436,22 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3400</v>
+        <v>3800</v>
       </c>
       <c r="E23" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F23" s="3">
         <v>3200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>3100</v>
       </c>
       <c r="G23" s="3">
         <v>3100</v>
@@ -1417,45 +1460,48 @@
         <v>3100</v>
       </c>
       <c r="I23" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J23" s="3">
         <v>3100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-17200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>1700</v>
       </c>
       <c r="N23" s="3">
         <v>1700</v>
       </c>
       <c r="O23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P23" s="3">
         <v>2000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1500</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E24" s="3">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="F24" s="3">
         <v>600</v>
@@ -1467,37 +1513,40 @@
         <v>600</v>
       </c>
       <c r="I24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-4700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-900</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
         <v>300</v>
       </c>
       <c r="O24" s="3">
+        <v>300</v>
+      </c>
+      <c r="P24" s="3">
         <v>400</v>
-      </c>
-      <c r="P24" s="3">
-        <v>300</v>
       </c>
       <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>300</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,19 +1595,22 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2800</v>
+        <v>3100</v>
       </c>
       <c r="E26" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F26" s="3">
         <v>2600</v>
-      </c>
-      <c r="F26" s="3">
-        <v>2500</v>
       </c>
       <c r="G26" s="3">
         <v>2500</v>
@@ -1567,48 +1619,51 @@
         <v>2500</v>
       </c>
       <c r="I26" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J26" s="3">
         <v>2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1200</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2800</v>
+        <v>3100</v>
       </c>
       <c r="E27" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F27" s="3">
         <v>2600</v>
-      </c>
-      <c r="F27" s="3">
-        <v>2500</v>
       </c>
       <c r="G27" s="3">
         <v>2500</v>
@@ -1617,37 +1672,40 @@
         <v>2500</v>
       </c>
       <c r="I27" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J27" s="3">
         <v>2500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1200</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,69 +1913,75 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F32" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G32" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H32" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>8300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K32" s="3">
+        <v>24200</v>
+      </c>
+      <c r="L32" s="3">
+        <v>11300</v>
+      </c>
+      <c r="M32" s="3">
+        <v>6700</v>
+      </c>
+      <c r="N32" s="3">
         <v>4900</v>
       </c>
-      <c r="E32" s="3">
-        <v>5200</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="O32" s="3">
+        <v>5100</v>
+      </c>
+      <c r="P32" s="3">
+        <v>4500</v>
+      </c>
+      <c r="Q32" s="3">
         <v>4700</v>
       </c>
-      <c r="G32" s="3">
-        <v>3800</v>
-      </c>
-      <c r="H32" s="3">
-        <v>3600</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="R32" s="3">
         <v>4600</v>
       </c>
-      <c r="J32" s="3">
-        <v>24200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>11300</v>
-      </c>
-      <c r="L32" s="3">
-        <v>6700</v>
-      </c>
-      <c r="M32" s="3">
-        <v>4900</v>
-      </c>
-      <c r="N32" s="3">
-        <v>5100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>4500</v>
-      </c>
-      <c r="P32" s="3">
-        <v>4700</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>4600</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2800</v>
+        <v>3100</v>
       </c>
       <c r="E33" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F33" s="3">
         <v>2600</v>
-      </c>
-      <c r="F33" s="3">
-        <v>2500</v>
       </c>
       <c r="G33" s="3">
         <v>2500</v>
@@ -1917,37 +1990,40 @@
         <v>2500</v>
       </c>
       <c r="I33" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J33" s="3">
         <v>2500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1200</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,19 +2072,22 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2800</v>
+        <v>3100</v>
       </c>
       <c r="E35" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F35" s="3">
         <v>2600</v>
-      </c>
-      <c r="F35" s="3">
-        <v>2500</v>
       </c>
       <c r="G35" s="3">
         <v>2500</v>
@@ -2017,92 +2096,98 @@
         <v>2500</v>
       </c>
       <c r="I35" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J35" s="3">
         <v>2500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1200</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,44 +2227,45 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E41" s="3">
         <v>11500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>30800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8900</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2191,44 +2278,47 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E42" s="3">
         <v>14700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>60900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>41100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>14200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>88900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>25600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>39100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>38500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>201900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>29000</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2241,8 +2331,11 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2291,8 +2384,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2437,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2391,8 +2490,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2441,8 +2543,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,44 +2596,47 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E48" s="3">
         <v>14400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2541,34 +2649,37 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E49" s="3">
         <v>1900</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1700</v>
       </c>
       <c r="F49" s="3">
         <v>1700</v>
       </c>
       <c r="G49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H49" s="3">
         <v>1500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1000</v>
-      </c>
-      <c r="K49" s="3">
-        <v>1200</v>
       </c>
       <c r="L49" s="3">
         <v>1200</v>
@@ -2576,8 +2687,8 @@
       <c r="M49" s="3">
         <v>1200</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
+      <c r="N49" s="3">
+        <v>1200</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,44 +2914,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1230700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1188500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1140900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1084200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1054900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1140200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1007600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>986000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>956200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1083000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>882800</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2841,8 +2967,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3011,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2899,26 +3030,26 @@
         <v>200</v>
       </c>
       <c r="H57" s="3">
+        <v>200</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2931,8 +3062,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,8 +3115,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3031,8 +3168,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3081,13 +3221,16 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E61" s="3">
         <v>500</v>
@@ -3096,19 +3239,19 @@
         <v>500</v>
       </c>
       <c r="G61" s="3">
+        <v>500</v>
+      </c>
+      <c r="H61" s="3">
         <v>600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>500</v>
-      </c>
-      <c r="K61" s="3">
-        <v>600</v>
       </c>
       <c r="L61" s="3">
         <v>600</v>
@@ -3117,7 +3260,7 @@
         <v>600</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -3131,8 +3274,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3157,8 +3303,8 @@
       <c r="J62" s="3">
         <v>17500</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
+      <c r="K62" s="3">
+        <v>17500</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
@@ -3172,8 +3318,8 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,44 +3486,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1052100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1005900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>951400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>891500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>863200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>944100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>814400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>798300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>755900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>992000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>793700</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3381,8 +3539,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,44 +3772,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>78200</v>
+      </c>
+      <c r="E72" s="3">
         <v>76000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>80000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>78300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>76400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>74400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>72600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>70100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>82700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>79200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>78900</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3651,8 +3825,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,44 +3984,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>178600</v>
+      </c>
+      <c r="E76" s="3">
         <v>182600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>189500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>192700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>191700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>196100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>193200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>187800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>200400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>91000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>89100</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3851,8 +4037,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,74 +4090,80 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2800</v>
+        <v>3100</v>
       </c>
       <c r="E81" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F81" s="3">
         <v>2600</v>
-      </c>
-      <c r="F81" s="3">
-        <v>2500</v>
       </c>
       <c r="G81" s="3">
         <v>2500</v>
@@ -3977,37 +4172,40 @@
         <v>2500</v>
       </c>
       <c r="I81" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J81" s="3">
         <v>2500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1200</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4035,7 +4234,7 @@
         <v>400</v>
       </c>
       <c r="E83" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="F83" s="3">
         <v>400</v>
@@ -4044,10 +4243,10 @@
         <v>400</v>
       </c>
       <c r="H83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I83" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="J83" s="3">
         <v>300</v>
@@ -4067,8 +4266,8 @@
       <c r="O83" s="3">
         <v>300</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
+      <c r="P83" s="3">
+        <v>300</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>5800</v>
       </c>
       <c r="E89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>9000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>100</v>
       </c>
-      <c r="H89" s="3">
-        <v>2700</v>
-      </c>
       <c r="I89" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J89" s="3">
         <v>4800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7600</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
-        <v>-700</v>
-      </c>
       <c r="I91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-300</v>
       </c>
       <c r="K91" s="3">
         <v>-300</v>
       </c>
       <c r="L91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M91" s="3">
         <v>-200</v>
       </c>
       <c r="N91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-91300</v>
+        <v>-42600</v>
       </c>
       <c r="E94" s="3">
+        <v>-133400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-42100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>2200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6800</v>
       </c>
-      <c r="H94" s="3">
-        <v>-50700</v>
-      </c>
       <c r="I94" s="3">
+        <v>-84700</v>
+      </c>
+      <c r="J94" s="3">
         <v>-34000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-26300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-35400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-28900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-16200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-29900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-24500</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,28 +4849,29 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-6800</v>
+        <v>-800</v>
       </c>
       <c r="E96" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="F96" s="3">
         <v>-800</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-600</v>
       </c>
       <c r="G96" s="3">
         <v>-600</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5059,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>42900</v>
+        <v>39600</v>
       </c>
       <c r="E100" s="3">
+        <v>104200</v>
+      </c>
+      <c r="F100" s="3">
         <v>61300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>20800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-87200</v>
       </c>
-      <c r="H100" s="3">
-        <v>131200</v>
-      </c>
       <c r="I100" s="3">
+        <v>147200</v>
+      </c>
+      <c r="J100" s="3">
         <v>16100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>22300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-128100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>197500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>30500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>33400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>10200</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5165,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-48400</v>
+        <v>2700</v>
       </c>
       <c r="E102" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="F102" s="3">
         <v>16800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>32100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-93900</v>
       </c>
-      <c r="H102" s="3">
-        <v>83200</v>
-      </c>
       <c r="I102" s="3">
+        <v>70000</v>
+      </c>
+      <c r="J102" s="3">
         <v>-13100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-161000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>171500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>16000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6700</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RMBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RMBI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
   <si>
     <t>RMBI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,145 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E8" s="3">
         <v>11900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>22000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>21100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8200</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -849,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E17" s="3">
         <v>2400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2800</v>
-      </c>
-      <c r="K17" s="3">
-        <v>3600</v>
       </c>
       <c r="L17" s="3">
         <v>3600</v>
       </c>
       <c r="M17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="N17" s="3">
         <v>3400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2100</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E18" s="3">
         <v>9500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>17300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>8300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>14500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6100</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-10700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-8300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-24200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-11300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4600</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E21" s="3">
         <v>4100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>7400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-17000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>600</v>
-      </c>
-      <c r="N21" s="3">
-        <v>2000</v>
       </c>
       <c r="O21" s="3">
         <v>2000</v>
       </c>
       <c r="P21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q21" s="3">
         <v>2300</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3">
         <v>1800</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,72 +1478,78 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E23" s="3">
         <v>3800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>3100</v>
       </c>
       <c r="H23" s="3">
         <v>3100</v>
       </c>
       <c r="I23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J23" s="3">
         <v>6200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-17200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>1700</v>
       </c>
       <c r="O23" s="3">
         <v>1700</v>
       </c>
       <c r="P23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q23" s="3">
         <v>2000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1500</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1200</v>
-      </c>
-      <c r="F24" s="3">
-        <v>600</v>
       </c>
       <c r="G24" s="3">
         <v>600</v>
@@ -1513,40 +1558,43 @@
         <v>600</v>
       </c>
       <c r="I24" s="3">
+        <v>600</v>
+      </c>
+      <c r="J24" s="3">
         <v>1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-4700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-900</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3">
         <v>300</v>
       </c>
       <c r="P24" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q24" s="3">
         <v>400</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>300</v>
       </c>
       <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>300</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E26" s="3">
         <v>3100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2600</v>
-      </c>
-      <c r="G26" s="3">
-        <v>2500</v>
       </c>
       <c r="H26" s="3">
         <v>2500</v>
       </c>
       <c r="I26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J26" s="3">
         <v>5000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1200</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E27" s="3">
         <v>3100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>2500</v>
       </c>
       <c r="H27" s="3">
         <v>2500</v>
       </c>
       <c r="I27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J27" s="3">
         <v>5000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1200</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E32" s="3">
         <v>5700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>10700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>8300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>24200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>11300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4600</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E33" s="3">
         <v>3100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>2500</v>
       </c>
       <c r="H33" s="3">
         <v>2500</v>
       </c>
       <c r="I33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J33" s="3">
         <v>5000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1200</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E35" s="3">
         <v>3100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>2500</v>
       </c>
       <c r="H35" s="3">
         <v>2500</v>
       </c>
       <c r="I35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J35" s="3">
         <v>5000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1200</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,47 +2313,48 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E41" s="3">
         <v>11300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>30800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8900</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2281,47 +2367,50 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E42" s="3">
         <v>18100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>14700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>60900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>41100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>14200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>88900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>25600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>39100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>38500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>201900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>29000</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2334,8 +2423,11 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2387,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2493,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2546,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,47 +2703,50 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E48" s="3">
         <v>14200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14000</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,37 +2759,40 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E49" s="3">
         <v>1700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1900</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1700</v>
       </c>
       <c r="G49" s="3">
         <v>1700</v>
       </c>
       <c r="H49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I49" s="3">
         <v>1500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1000</v>
-      </c>
-      <c r="L49" s="3">
-        <v>1200</v>
       </c>
       <c r="M49" s="3">
         <v>1200</v>
@@ -2690,8 +2800,8 @@
       <c r="N49" s="3">
         <v>1200</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
+      <c r="O49" s="3">
+        <v>1200</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
@@ -2705,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2864,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,47 +3039,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1267600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1230700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1188500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1140900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1084200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1054900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1140200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1007600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>986000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>956200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1083000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>882800</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2970,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,13 +3141,14 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
@@ -3033,26 +3163,26 @@
         <v>200</v>
       </c>
       <c r="I57" s="3">
+        <v>200</v>
+      </c>
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3065,8 +3195,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3118,8 +3251,11 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3171,8 +3307,11 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3224,16 +3363,19 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>500</v>
+      </c>
+      <c r="E61" s="3">
         <v>600</v>
-      </c>
-      <c r="E61" s="3">
-        <v>500</v>
       </c>
       <c r="F61" s="3">
         <v>500</v>
@@ -3242,19 +3384,19 @@
         <v>500</v>
       </c>
       <c r="H61" s="3">
+        <v>500</v>
+      </c>
+      <c r="I61" s="3">
         <v>600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>500</v>
-      </c>
-      <c r="L61" s="3">
-        <v>600</v>
       </c>
       <c r="M61" s="3">
         <v>600</v>
@@ -3263,7 +3405,7 @@
         <v>600</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -3277,13 +3419,16 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>17500</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>17500</v>
@@ -3306,8 +3451,8 @@
       <c r="K62" s="3">
         <v>17500</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
+      <c r="L62" s="3">
+        <v>17500</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
@@ -3321,8 +3466,8 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3330,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,47 +3643,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1087200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1052100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1005900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>951400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>891500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>863200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>944100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>814400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>798300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>755900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>992000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>793700</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3542,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,47 +3945,50 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>80200</v>
+      </c>
+      <c r="E72" s="3">
         <v>78200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>76000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>80000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>78300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>76400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>74400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>72600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>70100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>82700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>79200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>78900</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3828,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,47 +4169,50 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>180500</v>
+      </c>
+      <c r="E76" s="3">
         <v>178600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>182600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>189500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>192700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>191700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>196100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>193200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>187800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>200400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>91000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>89100</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4040,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E81" s="3">
         <v>3100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>2500</v>
       </c>
       <c r="H81" s="3">
         <v>2500</v>
       </c>
       <c r="I81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J81" s="3">
         <v>5000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1200</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4234,10 +4432,10 @@
         <v>400</v>
       </c>
       <c r="E83" s="3">
+        <v>400</v>
+      </c>
+      <c r="F83" s="3">
         <v>800</v>
-      </c>
-      <c r="F83" s="3">
-        <v>400</v>
       </c>
       <c r="G83" s="3">
         <v>400</v>
@@ -4246,10 +4444,10 @@
         <v>400</v>
       </c>
       <c r="I83" s="3">
+        <v>400</v>
+      </c>
+      <c r="J83" s="3">
         <v>700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>300</v>
       </c>
       <c r="K83" s="3">
         <v>300</v>
@@ -4269,8 +4467,8 @@
       <c r="P83" s="3">
         <v>300</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
+      <c r="Q83" s="3">
+        <v>300</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
@@ -4278,8 +4476,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E89" s="3">
         <v>5800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7600</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,13 +4836,14 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
@@ -4632,46 +4852,49 @@
         <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-300</v>
       </c>
       <c r="L91" s="3">
         <v>-300</v>
       </c>
       <c r="M91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="N91" s="3">
         <v>-200</v>
       </c>
       <c r="O91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-36200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-42600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-133400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-42100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>2200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-84700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-34000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-26300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-35400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-28900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-16200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-29900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-24500</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4859,13 +5092,13 @@
         <v>-800</v>
       </c>
       <c r="E96" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F96" s="3">
         <v>-7700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-800</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-600</v>
       </c>
       <c r="H96" s="3">
         <v>-600</v>
@@ -4874,7 +5107,7 @@
         <v>-600</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>52400</v>
+      </c>
+      <c r="E100" s="3">
         <v>39600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>104200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>61300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>20800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-87200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>147200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>16100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>22300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-128100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>197500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>30500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>33400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>10200</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E102" s="3">
         <v>2700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-31700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>16800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>32100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-93900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>70000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-13100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-161000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>171500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>16000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RMBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RMBI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
   <si>
     <t>RMBI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,159 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>12000</v>
+        <v>12400</v>
       </c>
       <c r="E8" s="3">
         <v>11900</v>
       </c>
       <c r="F8" s="3">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="G8" s="3">
+        <v>11900</v>
+      </c>
+      <c r="H8" s="3">
+        <v>11100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>10900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K8" s="3">
+        <v>10700</v>
+      </c>
+      <c r="L8" s="3">
+        <v>21100</v>
+      </c>
+      <c r="M8" s="3">
+        <v>10500</v>
+      </c>
+      <c r="N8" s="3">
         <v>10600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="O8" s="3">
         <v>10800</v>
       </c>
-      <c r="I8" s="3">
-        <v>10700</v>
-      </c>
-      <c r="J8" s="3">
-        <v>21100</v>
-      </c>
-      <c r="K8" s="3">
-        <v>10500</v>
-      </c>
-      <c r="L8" s="3">
-        <v>10600</v>
-      </c>
-      <c r="M8" s="3">
-        <v>10800</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>10400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>9800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>9500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>9000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>8600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>8200</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +872,14 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +934,14 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +962,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1020,14 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1082,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1144,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1206,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1231,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F17" s="3">
         <v>1900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2400</v>
       </c>
-      <c r="F17" s="3">
-        <v>4700</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I17" s="3">
         <v>2300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>6600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2100</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F18" s="3">
         <v>10100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>9500</v>
       </c>
-      <c r="F18" s="3">
-        <v>17300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>8300</v>
-      </c>
       <c r="H18" s="3">
+        <v>8600</v>
+      </c>
+      <c r="I18" s="3">
+        <v>8600</v>
+      </c>
+      <c r="J18" s="3">
         <v>7800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>7100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>14500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>7700</v>
-      </c>
-      <c r="L18" s="3">
-        <v>7000</v>
-      </c>
-      <c r="M18" s="3">
-        <v>7200</v>
       </c>
       <c r="N18" s="3">
         <v>7000</v>
       </c>
       <c r="O18" s="3">
+        <v>7200</v>
+      </c>
+      <c r="P18" s="3">
+        <v>7000</v>
+      </c>
+      <c r="Q18" s="3">
         <v>6600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>6800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>6500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>6400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>6100</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1379,134 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-6800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-5700</v>
       </c>
-      <c r="F20" s="3">
-        <v>-10700</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="J20" s="3">
         <v>-4700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-3900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-8300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-4600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-24200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-11300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-6700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-4900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-4500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-4700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-4600</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F21" s="3">
         <v>3600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>4100</v>
       </c>
-      <c r="F21" s="3">
-        <v>7400</v>
-      </c>
-      <c r="G21" s="3">
-        <v>3600</v>
-      </c>
       <c r="H21" s="3">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="I21" s="3">
         <v>3600</v>
       </c>
       <c r="J21" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K21" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L21" s="3">
         <v>6900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>3400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-17000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-3900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>2000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>2000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>2300</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3">
         <v>1800</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,78 +1561,90 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F23" s="3">
         <v>3200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>3800</v>
       </c>
-      <c r="F23" s="3">
-        <v>6600</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I23" s="3">
         <v>3200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>3100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>3100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>6200</v>
       </c>
       <c r="K23" s="3">
         <v>3100</v>
       </c>
       <c r="L23" s="3">
+        <v>6200</v>
+      </c>
+      <c r="M23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-17200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-4100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1700</v>
-      </c>
-      <c r="P23" s="3">
-        <v>1700</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>2000</v>
       </c>
       <c r="R23" s="3">
         <v>1700</v>
       </c>
       <c r="S23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="U23" s="3">
         <v>1500</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>600</v>
+      </c>
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G24" s="3">
-        <v>600</v>
       </c>
       <c r="H24" s="3">
         <v>600</v>
@@ -1561,40 +1653,46 @@
         <v>600</v>
       </c>
       <c r="J24" s="3">
+        <v>600</v>
+      </c>
+      <c r="K24" s="3">
+        <v>600</v>
+      </c>
+      <c r="L24" s="3">
         <v>1300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-4700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-900</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>300</v>
-      </c>
-      <c r="P24" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>400</v>
       </c>
       <c r="R24" s="3">
         <v>300</v>
       </c>
       <c r="S24" s="3">
+        <v>400</v>
+      </c>
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>300</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1747,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F26" s="3">
         <v>2700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>3100</v>
       </c>
-      <c r="F26" s="3">
-        <v>5300</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I26" s="3">
         <v>2600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>2500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>2500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>5000</v>
       </c>
       <c r="K26" s="3">
         <v>2500</v>
       </c>
       <c r="L26" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N26" s="3">
         <v>-12500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-3300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1200</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F27" s="3">
         <v>2700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>3100</v>
       </c>
-      <c r="F27" s="3">
-        <v>5300</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I27" s="3">
         <v>2600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>2500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>2500</v>
-      </c>
-      <c r="J27" s="3">
-        <v>5000</v>
       </c>
       <c r="K27" s="3">
         <v>2500</v>
       </c>
       <c r="L27" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N27" s="3">
         <v>-12500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-3300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1200</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1995,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2119,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F32" s="3">
         <v>6800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>5700</v>
       </c>
-      <c r="F32" s="3">
-        <v>10700</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>5500</v>
+      </c>
+      <c r="J32" s="3">
         <v>4700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>3900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>8300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>4600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>24200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>11300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>6700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>4900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>5100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>4500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>4700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>4600</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F33" s="3">
         <v>2700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>3100</v>
       </c>
-      <c r="F33" s="3">
-        <v>5300</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I33" s="3">
         <v>2600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>2500</v>
-      </c>
-      <c r="I33" s="3">
-        <v>2500</v>
-      </c>
-      <c r="J33" s="3">
-        <v>5000</v>
       </c>
       <c r="K33" s="3">
         <v>2500</v>
       </c>
       <c r="L33" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N33" s="3">
         <v>-12500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-3300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1200</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2305,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F35" s="3">
         <v>2700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>3100</v>
       </c>
-      <c r="F35" s="3">
-        <v>5300</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I35" s="3">
         <v>2600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>2500</v>
-      </c>
-      <c r="I35" s="3">
-        <v>2500</v>
-      </c>
-      <c r="J35" s="3">
-        <v>5000</v>
       </c>
       <c r="K35" s="3">
         <v>2500</v>
       </c>
       <c r="L35" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N35" s="3">
         <v>-12500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-3300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1200</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,53 +2486,55 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F41" s="3">
         <v>8500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>11300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>11500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>13700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>16700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>11700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>30800</v>
-      </c>
-      <c r="K41" s="3">
-        <v>10500</v>
-      </c>
-      <c r="L41" s="3">
-        <v>9100</v>
       </c>
       <c r="M41" s="3">
         <v>10500</v>
       </c>
       <c r="N41" s="3">
+        <v>9100</v>
+      </c>
+      <c r="O41" s="3">
+        <v>10500</v>
+      </c>
+      <c r="P41" s="3">
         <v>8000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>8900</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,53 +2544,59 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>21300</v>
+      </c>
+      <c r="F42" s="3">
         <v>24600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>18100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>14700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>60900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>41100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>14200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>88900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>25600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>39100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>38500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>201900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>29000</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2426,8 +2606,14 @@
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2668,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2730,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2792,14 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,8 +2854,14 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,52 +2916,58 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F48" s="3">
         <v>14300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>14200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>14400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>14700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>14900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>14800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>14400</v>
-      </c>
-      <c r="K48" s="3">
-        <v>14000</v>
-      </c>
-      <c r="L48" s="3">
-        <v>14100</v>
       </c>
       <c r="M48" s="3">
         <v>14000</v>
       </c>
       <c r="N48" s="3">
-        <v>13900</v>
+        <v>14100</v>
       </c>
       <c r="O48" s="3">
         <v>14000</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
+      <c r="P48" s="3">
+        <v>13900</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>14000</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
@@ -2762,8 +2978,14 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2771,43 +2993,43 @@
         <v>1600</v>
       </c>
       <c r="E49" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F49" s="3">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="G49" s="3">
         <v>1700</v>
       </c>
       <c r="H49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I49" s="3">
         <v>1700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1000</v>
-      </c>
-      <c r="M49" s="3">
-        <v>1200</v>
-      </c>
-      <c r="N49" s="3">
-        <v>1200</v>
       </c>
       <c r="O49" s="3">
         <v>1200</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
+      <c r="P49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>1200</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
@@ -2818,8 +3040,14 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3164,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3226,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,53 +3288,59 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1271600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1256100</v>
+      </c>
+      <c r="F54" s="3">
         <v>1267600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1230700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1188500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1140900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1084200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1054900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1140200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1007600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>986000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>956200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1083000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>882800</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3098,8 +3350,14 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3402,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3151,10 +3413,10 @@
         <v>300</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
@@ -3166,29 +3428,29 @@
         <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
       </c>
       <c r="M57" s="3">
+        <v>400</v>
+      </c>
+      <c r="N57" s="3">
+        <v>300</v>
+      </c>
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3198,8 +3460,14 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,8 +3522,14 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3310,8 +3584,14 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,8 +3646,14 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3381,13 +3667,13 @@
         <v>500</v>
       </c>
       <c r="G61" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H61" s="3">
         <v>500</v>
       </c>
       <c r="I61" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J61" s="3">
         <v>500</v>
@@ -3402,16 +3688,16 @@
         <v>600</v>
       </c>
       <c r="N61" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O61" s="3">
         <v>600</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
@@ -3422,19 +3708,25 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>17500</v>
+      <c r="D62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F62" s="3">
-        <v>17500</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>17500</v>
@@ -3454,11 +3746,11 @@
       <c r="L62" s="3">
         <v>17500</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
+      <c r="M62" s="3">
+        <v>17500</v>
+      </c>
+      <c r="N62" s="3">
+        <v>17500</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
@@ -3469,17 +3761,23 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,53 +3956,59 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1132700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1098800</v>
+      </c>
+      <c r="F66" s="3">
         <v>1087200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1052100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1005900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>951400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>891500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>863200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>944100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>814400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>798300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>755900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>992000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>793700</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3702,8 +4018,14 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,53 +4290,59 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>84400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>82000</v>
+      </c>
+      <c r="F72" s="3">
         <v>80200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>78200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>76000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>80000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>78300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>76400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>74400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>72600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>70100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>82700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>79200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>78900</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4004,8 +4352,14 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,53 +4538,59 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>138900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>157300</v>
+      </c>
+      <c r="F76" s="3">
         <v>180500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>178600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>182600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>189500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>192700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>191700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>196100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>193200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>187800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>200400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>91000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>89100</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4228,8 +4600,14 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4662,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F81" s="3">
         <v>2700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>3100</v>
       </c>
-      <c r="F81" s="3">
-        <v>5300</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I81" s="3">
         <v>2600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>2500</v>
-      </c>
-      <c r="I81" s="3">
-        <v>2500</v>
-      </c>
-      <c r="J81" s="3">
-        <v>5000</v>
       </c>
       <c r="K81" s="3">
         <v>2500</v>
       </c>
       <c r="L81" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N81" s="3">
         <v>-12500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-3300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1200</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,19 +4819,21 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>300</v>
+      </c>
+      <c r="F83" s="3">
         <v>400</v>
-      </c>
-      <c r="E83" s="3">
-        <v>400</v>
-      </c>
-      <c r="F83" s="3">
-        <v>800</v>
       </c>
       <c r="G83" s="3">
         <v>400</v>
@@ -4447,13 +4845,13 @@
         <v>400</v>
       </c>
       <c r="J83" s="3">
+        <v>400</v>
+      </c>
+      <c r="K83" s="3">
+        <v>400</v>
+      </c>
+      <c r="L83" s="3">
         <v>700</v>
-      </c>
-      <c r="K83" s="3">
-        <v>300</v>
-      </c>
-      <c r="L83" s="3">
-        <v>300</v>
       </c>
       <c r="M83" s="3">
         <v>300</v>
@@ -4470,17 +4868,23 @@
       <c r="Q83" s="3">
         <v>300</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
+      <c r="R83" s="3">
+        <v>300</v>
+      </c>
+      <c r="S83" s="3">
+        <v>300</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5187,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-13000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>5800</v>
       </c>
-      <c r="F89" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-2400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>9000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>7500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>4800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>3200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>2400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>2900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>7600</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5277,72 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-300</v>
       </c>
       <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
+      <c r="R91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-200</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5459,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-36400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-36200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-42600</v>
       </c>
-      <c r="F94" s="3">
-        <v>-133400</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
+        <v>-91300</v>
+      </c>
+      <c r="I94" s="3">
         <v>-42100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>2200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-6800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-84700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-34000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-26300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-35400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-28900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-16200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-29900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-24500</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,37 +5549,39 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F96" s="3">
         <v>-800</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-800</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-7700</v>
       </c>
       <c r="G96" s="3">
         <v>-800</v>
       </c>
       <c r="H96" s="3">
-        <v>-600</v>
+        <v>-6800</v>
       </c>
       <c r="I96" s="3">
-        <v>-600</v>
+        <v>-800</v>
       </c>
       <c r="J96" s="3">
         <v>-600</v>
       </c>
       <c r="K96" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="L96" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="M96" s="3">
         <v>0</v>
@@ -5139,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5793,76 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F100" s="3">
         <v>52400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>39600</v>
       </c>
-      <c r="F100" s="3">
-        <v>104200</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>42900</v>
+      </c>
+      <c r="I100" s="3">
         <v>61300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>20800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-87200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>147200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>16100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>22300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-128100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>197500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>30500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>33400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>10200</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5917,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F102" s="3">
         <v>3200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>2700</v>
       </c>
-      <c r="F102" s="3">
-        <v>-31700</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>-48400</v>
+      </c>
+      <c r="I102" s="3">
         <v>16800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>32100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-93900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>70000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-13100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-161000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>171500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>16000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>5300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-6700</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RMBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RMBI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
   <si>
     <t>RMBI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,159 +665,166 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E8" s="3">
         <v>12400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>21100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8200</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -878,8 +885,11 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +950,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1150,8 +1170,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,70 +1259,74 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2100</v>
+        <v>2900</v>
       </c>
       <c r="E17" s="3">
         <v>2100</v>
       </c>
       <c r="F17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2800</v>
-      </c>
-      <c r="N17" s="3">
-        <v>3600</v>
       </c>
       <c r="O17" s="3">
         <v>3600</v>
       </c>
       <c r="P17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Q17" s="3">
         <v>3400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2100</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1304,61 +1334,64 @@
         <v>10300</v>
       </c>
       <c r="E18" s="3">
+        <v>10300</v>
+      </c>
+      <c r="F18" s="3">
         <v>9800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>8600</v>
       </c>
       <c r="I18" s="3">
         <v>8600</v>
       </c>
       <c r="J18" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K18" s="3">
         <v>7800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>14500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>6100</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,132 +1414,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-8300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-24200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-11300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-5100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-4700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-4600</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E21" s="3">
         <v>4700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-17000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>600</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>2000</v>
       </c>
       <c r="R21" s="3">
         <v>2000</v>
       </c>
       <c r="S21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T21" s="3">
         <v>2300</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3">
         <v>1800</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1567,87 +1607,93 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E23" s="3">
         <v>4400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>3100</v>
       </c>
       <c r="K23" s="3">
         <v>3100</v>
       </c>
       <c r="L23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M23" s="3">
         <v>6200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-17200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>300</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>1700</v>
       </c>
       <c r="R23" s="3">
         <v>1700</v>
       </c>
       <c r="S23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="T23" s="3">
         <v>2000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1500</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>700</v>
-      </c>
-      <c r="H24" s="3">
-        <v>600</v>
       </c>
       <c r="I24" s="3">
         <v>600</v>
@@ -1659,40 +1705,43 @@
         <v>600</v>
       </c>
       <c r="L24" s="3">
+        <v>600</v>
+      </c>
+      <c r="M24" s="3">
         <v>1300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-4700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-900</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R24" s="3">
         <v>300</v>
       </c>
       <c r="S24" s="3">
+        <v>300</v>
+      </c>
+      <c r="T24" s="3">
         <v>400</v>
-      </c>
-      <c r="T24" s="3">
-        <v>300</v>
       </c>
       <c r="U24" s="3">
         <v>300</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>300</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E26" s="3">
         <v>3500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2600</v>
-      </c>
-      <c r="J26" s="3">
-        <v>2500</v>
       </c>
       <c r="K26" s="3">
         <v>2500</v>
       </c>
       <c r="L26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M26" s="3">
         <v>5000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-12500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1200</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E27" s="3">
         <v>3500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2600</v>
-      </c>
-      <c r="J27" s="3">
-        <v>2500</v>
       </c>
       <c r="K27" s="3">
         <v>2500</v>
       </c>
       <c r="L27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M27" s="3">
         <v>5000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-12500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1200</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2192,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E32" s="3">
         <v>5900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>8300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>24200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>11300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>5100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>4700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>4600</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E33" s="3">
         <v>3500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2600</v>
-      </c>
-      <c r="J33" s="3">
-        <v>2500</v>
       </c>
       <c r="K33" s="3">
         <v>2500</v>
       </c>
       <c r="L33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M33" s="3">
         <v>5000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-12500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1200</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E35" s="3">
         <v>3500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2600</v>
-      </c>
-      <c r="J35" s="3">
-        <v>2500</v>
       </c>
       <c r="K35" s="3">
         <v>2500</v>
       </c>
       <c r="L35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M35" s="3">
         <v>5000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-12500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1200</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,56 +2574,57 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E41" s="3">
         <v>8600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>30800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8900</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2550,56 +2637,59 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E42" s="3">
         <v>15600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>21300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>24600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>18100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>14700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>60900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>41100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>14200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>88900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>25600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>39100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>38500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>201900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>29000</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2612,8 +2702,11 @@
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2674,8 +2767,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,8 +2832,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2798,8 +2897,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2860,8 +2962,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,56 +3027,59 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E48" s="3">
         <v>14000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14000</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2984,13 +3092,16 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E49" s="3">
         <v>1600</v>
@@ -2999,31 +3110,31 @@
         <v>1600</v>
       </c>
       <c r="G49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H49" s="3">
         <v>1700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1900</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1700</v>
       </c>
       <c r="J49" s="3">
         <v>1700</v>
       </c>
       <c r="K49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L49" s="3">
         <v>1500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1000</v>
-      </c>
-      <c r="O49" s="3">
-        <v>1200</v>
       </c>
       <c r="P49" s="3">
         <v>1200</v>
@@ -3031,8 +3142,8 @@
       <c r="Q49" s="3">
         <v>1200</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
+      <c r="R49" s="3">
+        <v>1200</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3287,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3232,8 +3352,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,56 +3417,59 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1278600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1271600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1256100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1267600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1230700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1188500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1140900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1084200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1054900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1140200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1007600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>986000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>956200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1083000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>882800</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3356,8 +3482,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,13 +3534,14 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
@@ -3419,7 +3550,7 @@
         <v>300</v>
       </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
@@ -3434,26 +3565,26 @@
         <v>200</v>
       </c>
       <c r="L57" s="3">
+        <v>200</v>
+      </c>
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3466,8 +3597,11 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3528,8 +3662,11 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3590,8 +3727,11 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3652,25 +3792,28 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>600</v>
+      </c>
+      <c r="E61" s="3">
         <v>500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>600</v>
-      </c>
-      <c r="H61" s="3">
-        <v>500</v>
       </c>
       <c r="I61" s="3">
         <v>500</v>
@@ -3679,19 +3822,19 @@
         <v>500</v>
       </c>
       <c r="K61" s="3">
+        <v>500</v>
+      </c>
+      <c r="L61" s="3">
         <v>600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>500</v>
-      </c>
-      <c r="O61" s="3">
-        <v>600</v>
       </c>
       <c r="P61" s="3">
         <v>600</v>
@@ -3700,7 +3843,7 @@
         <v>600</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
@@ -3714,8 +3857,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3725,11 +3871,11 @@
       <c r="E62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G62" s="3">
-        <v>17500</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>17500</v>
@@ -3752,8 +3898,8 @@
       <c r="N62" s="3">
         <v>17500</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
+      <c r="O62" s="3">
+        <v>17500</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
@@ -3767,8 +3913,8 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -3776,8 +3922,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,56 +4117,59 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1153600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1132700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1098800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1087200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1052100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1005900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>951400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>891500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>863200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>944100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>814400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>798300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>755900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>992000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>793700</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4024,8 +4182,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,56 +4467,59 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>86500</v>
+      </c>
+      <c r="E72" s="3">
         <v>84400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>82000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>80200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>78200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>76000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>80000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>78300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>76400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>74400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>72600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>70100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>82700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>79200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>78900</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4358,8 +4532,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,56 +4727,59 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E76" s="3">
         <v>138900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>157300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>180500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>178600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>182600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>189500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>192700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>191700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>196100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>193200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>187800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>200400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>91000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>89100</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4606,8 +4792,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E81" s="3">
         <v>3500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2600</v>
-      </c>
-      <c r="J81" s="3">
-        <v>2500</v>
       </c>
       <c r="K81" s="3">
         <v>2500</v>
       </c>
       <c r="L81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M81" s="3">
         <v>5000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-12500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1200</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5019,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4833,7 +5032,7 @@
         <v>300</v>
       </c>
       <c r="F83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G83" s="3">
         <v>400</v>
@@ -4851,10 +5050,10 @@
         <v>400</v>
       </c>
       <c r="L83" s="3">
+        <v>400</v>
+      </c>
+      <c r="M83" s="3">
         <v>700</v>
-      </c>
-      <c r="M83" s="3">
-        <v>300</v>
       </c>
       <c r="N83" s="3">
         <v>300</v>
@@ -4874,8 +5073,8 @@
       <c r="S83" s="3">
         <v>300</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
+      <c r="T83" s="3">
+        <v>300</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
@@ -4883,8 +5082,11 @@
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E89" s="3">
         <v>6100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-13000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>9000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>7600</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5499,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-300</v>
       </c>
       <c r="O91" s="3">
         <v>-300</v>
       </c>
       <c r="P91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Q91" s="3">
         <v>-200</v>
       </c>
       <c r="R91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-36400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-16100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-36200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-42600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-91300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-42100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>2200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-84700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-34000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-26300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-35400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-28900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-16200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-29900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-24500</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5563,19 +5797,19 @@
         <v>-1100</v>
       </c>
       <c r="F96" s="3">
-        <v>-800</v>
+        <v>-1100</v>
       </c>
       <c r="G96" s="3">
         <v>-800</v>
       </c>
       <c r="H96" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I96" s="3">
         <v>-6800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-800</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-600</v>
       </c>
       <c r="K96" s="3">
         <v>-600</v>
@@ -5584,7 +5818,7 @@
         <v>-600</v>
       </c>
       <c r="M96" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="N96" s="3">
         <v>0</v>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6042,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E100" s="3">
         <v>25200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>8700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>52400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>39600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>42900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>61300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>20800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-87200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>147200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>16100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>22300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-128100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>197500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>30500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>33400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>10200</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6172,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-48400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>16800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>32100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-93900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>70000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-13100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-161000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>171500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>16000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>5300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-6700</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RMBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RMBI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
   <si>
     <t>RMBI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,179 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F8" s="3">
         <v>13200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>12400</v>
-      </c>
-      <c r="F8" s="3">
-        <v>11900</v>
-      </c>
-      <c r="G8" s="3">
-        <v>12000</v>
       </c>
       <c r="H8" s="3">
         <v>11900</v>
       </c>
       <c r="I8" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K8" s="3">
         <v>11100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>10900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>10800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>10700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>21100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>10500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>10600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>10800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>10400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>9800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>9500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>9000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>8600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>8200</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -888,8 +901,14 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -953,8 +972,14 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,8 +1003,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1043,8 +1070,14 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1141,14 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1173,8 +1212,14 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1283,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1311,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F17" s="3">
         <v>2900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>6600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>3400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2100</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F18" s="3">
         <v>10300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>10300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>9800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>10100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>9500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>8600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>8600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>7800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>7100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>14500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>7700</v>
-      </c>
-      <c r="O18" s="3">
-        <v>7000</v>
-      </c>
-      <c r="P18" s="3">
-        <v>7200</v>
       </c>
       <c r="Q18" s="3">
         <v>7000</v>
       </c>
       <c r="R18" s="3">
+        <v>7200</v>
+      </c>
+      <c r="S18" s="3">
+        <v>7000</v>
+      </c>
+      <c r="T18" s="3">
         <v>6600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>6800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>6500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>6400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>6100</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,138 +1480,152 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-6600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="G20" s="3">
         <v>-5900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-6200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-6800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-5700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-5200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-5500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-4700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-3900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-8300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-4600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-24200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-6700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-4900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-5100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-4500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-4700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-4600</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F21" s="3">
         <v>4100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>4700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>3900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>3600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>4100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>3800</v>
-      </c>
-      <c r="J21" s="3">
-        <v>3600</v>
-      </c>
-      <c r="K21" s="3">
-        <v>3500</v>
       </c>
       <c r="L21" s="3">
         <v>3600</v>
       </c>
       <c r="M21" s="3">
+        <v>3500</v>
+      </c>
+      <c r="N21" s="3">
+        <v>3600</v>
+      </c>
+      <c r="O21" s="3">
         <v>6900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>3400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-17000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>2000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>2000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>2300</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X21" s="3">
         <v>1800</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1610,96 +1689,108 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F23" s="3">
         <v>3800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>4400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>3600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>3200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>3800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>3400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>3200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>3100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>3100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>6200</v>
       </c>
       <c r="N23" s="3">
         <v>3100</v>
       </c>
       <c r="O23" s="3">
+        <v>6200</v>
+      </c>
+      <c r="P23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-17200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1700</v>
-      </c>
-      <c r="S23" s="3">
-        <v>1700</v>
-      </c>
-      <c r="T23" s="3">
-        <v>2000</v>
       </c>
       <c r="U23" s="3">
         <v>1700</v>
       </c>
       <c r="V23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="W23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="X23" s="3">
         <v>1500</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E24" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F24" s="3">
         <v>600</v>
       </c>
       <c r="G24" s="3">
+        <v>900</v>
+      </c>
+      <c r="H24" s="3">
+        <v>600</v>
+      </c>
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>700</v>
-      </c>
-      <c r="I24" s="3">
-        <v>600</v>
-      </c>
-      <c r="J24" s="3">
-        <v>600</v>
       </c>
       <c r="K24" s="3">
         <v>600</v>
@@ -1708,40 +1799,46 @@
         <v>600</v>
       </c>
       <c r="M24" s="3">
+        <v>600</v>
+      </c>
+      <c r="N24" s="3">
+        <v>600</v>
+      </c>
+      <c r="O24" s="3">
         <v>1300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-4700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-900</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>300</v>
-      </c>
-      <c r="S24" s="3">
-        <v>300</v>
-      </c>
-      <c r="T24" s="3">
-        <v>400</v>
       </c>
       <c r="U24" s="3">
         <v>300</v>
       </c>
       <c r="V24" s="3">
+        <v>400</v>
+      </c>
+      <c r="W24" s="3">
         <v>300</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1902,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F26" s="3">
         <v>3200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>3500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>3000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>2700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>3100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>2800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2500</v>
-      </c>
-      <c r="L26" s="3">
-        <v>2500</v>
-      </c>
-      <c r="M26" s="3">
-        <v>5000</v>
       </c>
       <c r="N26" s="3">
         <v>2500</v>
       </c>
       <c r="O26" s="3">
+        <v>5000</v>
+      </c>
+      <c r="P26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-12500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>1600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>1400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>1200</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F27" s="3">
         <v>3200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>3500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>3000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>2700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>3100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>2800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2500</v>
-      </c>
-      <c r="L27" s="3">
-        <v>2500</v>
-      </c>
-      <c r="M27" s="3">
-        <v>5000</v>
       </c>
       <c r="N27" s="3">
         <v>2500</v>
       </c>
       <c r="O27" s="3">
+        <v>5000</v>
+      </c>
+      <c r="P27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-12500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>1600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>1400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>1200</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2115,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2186,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,138 +2328,156 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E32" s="3">
         <v>6600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
+        <v>6600</v>
+      </c>
+      <c r="G32" s="3">
         <v>5900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>6200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>6800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>5700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>5200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>5500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>4700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>3900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>8300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>4600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>24200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>11300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>6700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>4900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>5100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>4500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>4700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>4600</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F33" s="3">
         <v>3200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>3500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>3000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>2700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>3100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>2800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2500</v>
-      </c>
-      <c r="L33" s="3">
-        <v>2500</v>
-      </c>
-      <c r="M33" s="3">
-        <v>5000</v>
       </c>
       <c r="N33" s="3">
         <v>2500</v>
       </c>
       <c r="O33" s="3">
+        <v>5000</v>
+      </c>
+      <c r="P33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-12500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>1600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>1400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>1200</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2541,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F35" s="3">
         <v>3200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>3500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>3000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>2700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>3100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>2800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2500</v>
-      </c>
-      <c r="L35" s="3">
-        <v>2500</v>
-      </c>
-      <c r="M35" s="3">
-        <v>5000</v>
       </c>
       <c r="N35" s="3">
         <v>2500</v>
       </c>
       <c r="O35" s="3">
+        <v>5000</v>
+      </c>
+      <c r="P35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-12500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>1600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>1400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>1200</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,62 +2746,64 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F41" s="3">
         <v>12800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>8600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>8100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>8500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>11300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>11500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>13700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>16700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>11700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>30800</v>
-      </c>
-      <c r="N41" s="3">
-        <v>10500</v>
-      </c>
-      <c r="O41" s="3">
-        <v>9100</v>
       </c>
       <c r="P41" s="3">
         <v>10500</v>
       </c>
       <c r="Q41" s="3">
+        <v>9100</v>
+      </c>
+      <c r="R41" s="3">
+        <v>10500</v>
+      </c>
+      <c r="S41" s="3">
         <v>8000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>8900</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2640,62 +2813,68 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E42" s="3">
+        <v>18600</v>
+      </c>
+      <c r="F42" s="3">
         <v>16500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>15600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>21300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>24600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>18100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>14700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>60900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>41100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>14200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>88900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>25600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>39100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>38500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>201900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>29000</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2705,8 +2884,14 @@
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2770,8 +2955,14 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2835,8 +3026,14 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2900,8 +3097,14 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2965,8 +3168,14 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3030,61 +3239,67 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>13700</v>
+      </c>
+      <c r="F48" s="3">
         <v>13800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>14000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>14100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>14300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>14200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>14400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>14700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>14900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>14800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>14400</v>
-      </c>
-      <c r="N48" s="3">
-        <v>14000</v>
-      </c>
-      <c r="O48" s="3">
-        <v>14100</v>
       </c>
       <c r="P48" s="3">
         <v>14000</v>
       </c>
       <c r="Q48" s="3">
-        <v>13900</v>
+        <v>14100</v>
       </c>
       <c r="R48" s="3">
         <v>14000</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
+      <c r="S48" s="3">
+        <v>13900</v>
+      </c>
+      <c r="T48" s="3">
+        <v>14000</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
@@ -3095,61 +3310,67 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F49" s="3">
         <v>1700</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1600</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1600</v>
       </c>
       <c r="G49" s="3">
         <v>1600</v>
       </c>
       <c r="H49" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I49" s="3">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="J49" s="3">
         <v>1700</v>
       </c>
       <c r="K49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L49" s="3">
         <v>1700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N49" s="3">
         <v>1500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1000</v>
-      </c>
-      <c r="P49" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>1200</v>
       </c>
       <c r="R49" s="3">
         <v>1200</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T49" s="3" t="s">
-        <v>3</v>
+      <c r="S49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T49" s="3">
+        <v>1200</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>3</v>
@@ -3160,8 +3381,14 @@
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,8 +3523,14 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3355,8 +3594,14 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,62 +3665,68 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1362200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1328600</v>
+      </c>
+      <c r="F54" s="3">
         <v>1278600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1271600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1256100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1267600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1230700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1188500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1140900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1084200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1054900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1140200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1007600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>986000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>956200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1083000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>882800</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3485,8 +3736,14 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,28 +3794,30 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F57" s="3">
         <v>700</v>
-      </c>
-      <c r="E57" s="3">
-        <v>300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
       </c>
       <c r="H57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
@@ -3568,29 +3829,29 @@
         <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>300</v>
       </c>
       <c r="P57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3600,8 +3861,14 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3665,8 +3932,14 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3730,8 +4003,14 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3795,16 +4074,22 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>700</v>
+      </c>
+      <c r="E61" s="3">
         <v>600</v>
-      </c>
-      <c r="E61" s="3">
-        <v>500</v>
       </c>
       <c r="F61" s="3">
         <v>600</v>
@@ -3819,13 +4104,13 @@
         <v>500</v>
       </c>
       <c r="J61" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K61" s="3">
         <v>500</v>
       </c>
       <c r="L61" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M61" s="3">
         <v>500</v>
@@ -3840,16 +4125,16 @@
         <v>600</v>
       </c>
       <c r="Q61" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="R61" s="3">
         <v>600</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="T61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="U61" s="3">
         <v>0</v>
@@ -3860,8 +4145,14 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3874,14 +4165,14 @@
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>17500</v>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I62" s="3">
-        <v>17500</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>17500</v>
@@ -3901,11 +4192,11 @@
       <c r="O62" s="3">
         <v>17500</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
+      <c r="P62" s="3">
+        <v>17500</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>17500</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
@@ -3916,17 +4207,23 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
-      </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,62 +4429,68 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1226000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1195600</v>
+      </c>
+      <c r="F66" s="3">
         <v>1153600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1132700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1098800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1087200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1052100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1005900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>951400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>891500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>863200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>944100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>814400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>798300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>755900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>992000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>793700</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4185,8 +4500,14 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,62 +4811,68 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>86300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>88700</v>
+      </c>
+      <c r="F72" s="3">
         <v>86500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>84400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>82000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>80200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>78200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>76000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>80000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>78300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>76400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>74400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>72600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>70100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>82700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>79200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>78900</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4535,8 +4882,14 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,62 +5095,68 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>136100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>133000</v>
+      </c>
+      <c r="F76" s="3">
         <v>125000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>138900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>157300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>180500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>178600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>182600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>189500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>192700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>191700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>196100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>193200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>187800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>200400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>91000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>89100</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4795,8 +5166,14 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5237,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F81" s="3">
         <v>3200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>3500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>3000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>2700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>3100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>2800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2500</v>
-      </c>
-      <c r="L81" s="3">
-        <v>2500</v>
-      </c>
-      <c r="M81" s="3">
-        <v>5000</v>
       </c>
       <c r="N81" s="3">
         <v>2500</v>
       </c>
       <c r="O81" s="3">
+        <v>5000</v>
+      </c>
+      <c r="P81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-12500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>1600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>1400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>1200</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5415,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5035,10 +5432,10 @@
         <v>300</v>
       </c>
       <c r="G83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I83" s="3">
         <v>400</v>
@@ -5053,13 +5450,13 @@
         <v>400</v>
       </c>
       <c r="M83" s="3">
+        <v>400</v>
+      </c>
+      <c r="N83" s="3">
+        <v>400</v>
+      </c>
+      <c r="O83" s="3">
         <v>700</v>
-      </c>
-      <c r="N83" s="3">
-        <v>300</v>
-      </c>
-      <c r="O83" s="3">
-        <v>300</v>
       </c>
       <c r="P83" s="3">
         <v>300</v>
@@ -5076,17 +5473,23 @@
       <c r="T83" s="3">
         <v>300</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
+      <c r="U83" s="3">
+        <v>300</v>
+      </c>
+      <c r="V83" s="3">
+        <v>300</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5837,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F89" s="3">
         <v>4600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>6100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>3900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-13000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>5800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>9000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>7500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>4800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>3200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>2400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>2900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>1700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>1800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>7600</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,73 +5939,81 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-400</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-300</v>
       </c>
       <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
+      <c r="U91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V91" s="3">
+        <v>-200</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +6148,85 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-18300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-36400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-16100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-36200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-42600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-91300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-42100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>2200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-6800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-84700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-34000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-26300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-35400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-28900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-16200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-29900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-24500</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,13 +6250,15 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1100</v>
+        <v>-1500</v>
       </c>
       <c r="E96" s="3">
         <v>-1100</v>
@@ -5800,31 +6267,31 @@
         <v>-1100</v>
       </c>
       <c r="G96" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I96" s="3">
         <v>-800</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-6800</v>
       </c>
       <c r="J96" s="3">
         <v>-800</v>
       </c>
       <c r="K96" s="3">
-        <v>-600</v>
+        <v>-6800</v>
       </c>
       <c r="L96" s="3">
-        <v>-600</v>
+        <v>-800</v>
       </c>
       <c r="M96" s="3">
         <v>-600</v>
       </c>
       <c r="N96" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="O96" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="P96" s="3">
         <v>0</v>
@@ -5850,8 +6317,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,73 +6530,85 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>38300</v>
+      </c>
+      <c r="F100" s="3">
         <v>18700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>25200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>8700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>52400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>39600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>42900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>61300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>20800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-87200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>147200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>16100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>22300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-128100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>197500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>30500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>33400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>10200</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,69 +6672,81 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F102" s="3">
         <v>4900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-5200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-3500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>3200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-48400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>16800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>32100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-93900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>70000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-13100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-161000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>171500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>16000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>5300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-6700</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RMBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RMBI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
   <si>
     <t>RMBI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,186 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E8" s="3">
         <v>15200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>21100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>8200</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -907,8 +914,11 @@
       <c r="Y9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +988,11 @@
       <c r="Y10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,8 +1238,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E17" s="3">
         <v>5500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2900</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2100</v>
       </c>
       <c r="H17" s="3">
         <v>2100</v>
       </c>
       <c r="I17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J17" s="3">
         <v>1900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2800</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>3600</v>
       </c>
       <c r="R17" s="3">
         <v>3600</v>
       </c>
       <c r="S17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="T17" s="3">
         <v>3400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2100</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E18" s="3">
         <v>9700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>10500</v>
-      </c>
-      <c r="F18" s="3">
-        <v>10300</v>
       </c>
       <c r="G18" s="3">
         <v>10300</v>
       </c>
       <c r="H18" s="3">
+        <v>10300</v>
+      </c>
+      <c r="I18" s="3">
         <v>9800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9500</v>
-      </c>
-      <c r="K18" s="3">
-        <v>8600</v>
       </c>
       <c r="L18" s="3">
         <v>8600</v>
       </c>
       <c r="M18" s="3">
+        <v>8600</v>
+      </c>
+      <c r="N18" s="3">
         <v>7800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>14500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>6800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>6500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>6400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>6100</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,150 +1515,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-6300</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-6600</v>
       </c>
       <c r="F20" s="3">
         <v>-6600</v>
       </c>
       <c r="G20" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="H20" s="3">
         <v>-5900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-6800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-8300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-24200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-11300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-6700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-4900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-5100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-4500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-4700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-4600</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E21" s="3">
         <v>3700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-17000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>600</v>
-      </c>
-      <c r="T21" s="3">
-        <v>2000</v>
       </c>
       <c r="U21" s="3">
         <v>2000</v>
       </c>
       <c r="V21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="W21" s="3">
         <v>2300</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="3">
         <v>1800</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,79 +1735,85 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E23" s="3">
         <v>3400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>3100</v>
       </c>
       <c r="N23" s="3">
         <v>3100</v>
       </c>
       <c r="O23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="P23" s="3">
         <v>6200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-17200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>300</v>
-      </c>
-      <c r="T23" s="3">
-        <v>1700</v>
       </c>
       <c r="U23" s="3">
         <v>1700</v>
       </c>
       <c r="V23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="W23" s="3">
         <v>2000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1500</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1775,25 +1821,25 @@
         <v>500</v>
       </c>
       <c r="E24" s="3">
+        <v>500</v>
+      </c>
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
-      </c>
-      <c r="K24" s="3">
-        <v>600</v>
       </c>
       <c r="L24" s="3">
         <v>600</v>
@@ -1805,40 +1851,43 @@
         <v>600</v>
       </c>
       <c r="O24" s="3">
+        <v>600</v>
+      </c>
+      <c r="P24" s="3">
         <v>1300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-4700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-900</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="U24" s="3">
         <v>300</v>
       </c>
       <c r="V24" s="3">
+        <v>300</v>
+      </c>
+      <c r="W24" s="3">
         <v>400</v>
-      </c>
-      <c r="W24" s="3">
-        <v>300</v>
       </c>
       <c r="X24" s="3">
         <v>300</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E26" s="3">
         <v>2900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2600</v>
-      </c>
-      <c r="M26" s="3">
-        <v>2500</v>
       </c>
       <c r="N26" s="3">
         <v>2500</v>
       </c>
       <c r="O26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P26" s="3">
         <v>5000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-12500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1200</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E27" s="3">
         <v>2900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2600</v>
-      </c>
-      <c r="M27" s="3">
-        <v>2500</v>
       </c>
       <c r="N27" s="3">
         <v>2500</v>
       </c>
       <c r="O27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P27" s="3">
         <v>5000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-12500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1200</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2401,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E32" s="3">
         <v>6300</v>
-      </c>
-      <c r="E32" s="3">
-        <v>6600</v>
       </c>
       <c r="F32" s="3">
         <v>6600</v>
       </c>
       <c r="G32" s="3">
+        <v>6600</v>
+      </c>
+      <c r="H32" s="3">
         <v>5900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>6800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>8300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>24200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>11300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>6700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>4900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>5100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>4500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>4700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>4600</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E33" s="3">
         <v>2900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2600</v>
-      </c>
-      <c r="M33" s="3">
-        <v>2500</v>
       </c>
       <c r="N33" s="3">
         <v>2500</v>
       </c>
       <c r="O33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P33" s="3">
         <v>5000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-12500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1200</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E35" s="3">
         <v>2900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2600</v>
-      </c>
-      <c r="M35" s="3">
-        <v>2500</v>
       </c>
       <c r="N35" s="3">
         <v>2500</v>
       </c>
       <c r="O35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P35" s="3">
         <v>5000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-12500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1200</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,65 +2834,66 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E41" s="3">
         <v>9700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>30800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8900</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2819,65 +2906,68 @@
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E42" s="3">
         <v>18300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>18600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>16500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>15600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>21300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>24600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>18100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>14700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>60900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>41100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>14200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>88900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>25600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>39100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>38500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>201900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>29000</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2890,8 +2980,11 @@
       <c r="Y42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2961,8 +3054,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,8 +3128,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3103,8 +3202,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3174,8 +3276,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,8 +3350,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3254,56 +3362,56 @@
         <v>13500</v>
       </c>
       <c r="E48" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F48" s="3">
         <v>13700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>14000</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3316,8 +3424,11 @@
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3328,10 +3439,10 @@
         <v>2000</v>
       </c>
       <c r="F49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G49" s="3">
         <v>1700</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1600</v>
       </c>
       <c r="H49" s="3">
         <v>1600</v>
@@ -3340,31 +3451,31 @@
         <v>1600</v>
       </c>
       <c r="J49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K49" s="3">
         <v>1700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1900</v>
-      </c>
-      <c r="L49" s="3">
-        <v>1700</v>
       </c>
       <c r="M49" s="3">
         <v>1700</v>
       </c>
       <c r="N49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O49" s="3">
         <v>1500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1000</v>
-      </c>
-      <c r="R49" s="3">
-        <v>1200</v>
       </c>
       <c r="S49" s="3">
         <v>1200</v>
@@ -3372,8 +3483,8 @@
       <c r="T49" s="3">
         <v>1200</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>3</v>
+      <c r="U49" s="3">
+        <v>1200</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>3</v>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3646,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3600,8 +3720,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,65 +3794,68 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1409200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1362200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1328600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1278600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1271600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1256100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1267600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1230700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1188500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1140900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1084200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1054900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1140200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1007600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>986000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>956200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1083000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>882800</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3742,8 +3868,11 @@
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,22 +3926,23 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E57" s="3">
         <v>2500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
-      </c>
-      <c r="G57" s="3">
-        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
@@ -3820,7 +3951,7 @@
         <v>300</v>
       </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
@@ -3835,26 +3966,26 @@
         <v>200</v>
       </c>
       <c r="O57" s="3">
+        <v>200</v>
+      </c>
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>700</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3867,8 +3998,11 @@
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3938,8 +4072,11 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4009,8 +4146,11 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4080,34 +4220,37 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>600</v>
+      </c>
+      <c r="E61" s="3">
         <v>700</v>
-      </c>
-      <c r="E61" s="3">
-        <v>600</v>
       </c>
       <c r="F61" s="3">
         <v>600</v>
       </c>
       <c r="G61" s="3">
+        <v>600</v>
+      </c>
+      <c r="H61" s="3">
         <v>500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>600</v>
-      </c>
-      <c r="K61" s="3">
-        <v>500</v>
       </c>
       <c r="L61" s="3">
         <v>500</v>
@@ -4116,19 +4259,19 @@
         <v>500</v>
       </c>
       <c r="N61" s="3">
+        <v>500</v>
+      </c>
+      <c r="O61" s="3">
         <v>600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>500</v>
-      </c>
-      <c r="R61" s="3">
-        <v>600</v>
       </c>
       <c r="S61" s="3">
         <v>600</v>
@@ -4137,7 +4280,7 @@
         <v>600</v>
       </c>
       <c r="U61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="V61" s="3">
         <v>0</v>
@@ -4151,8 +4294,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4171,11 +4317,11 @@
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J62" s="3">
-        <v>17500</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>17500</v>
@@ -4198,8 +4344,8 @@
       <c r="Q62" s="3">
         <v>17500</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
+      <c r="R62" s="3">
+        <v>17500</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
@@ -4213,8 +4359,8 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4222,8 +4368,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,65 +4590,68 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1278400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1226000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1195600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1153600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1132700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1098800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1087200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1052100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1005900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>951400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>891500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>863200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>944100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>814400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>798300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>755900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>992000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>793700</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4506,8 +4664,11 @@
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,65 +4988,68 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>87500</v>
+      </c>
+      <c r="E72" s="3">
         <v>86300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>88700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>86500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>84400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>82000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>80200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>78200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>76000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>80000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>78300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>76400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>74400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>72600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>70100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>82700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>79200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>78900</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4888,8 +5062,11 @@
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,65 +5284,68 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>130800</v>
+      </c>
+      <c r="E76" s="3">
         <v>136100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>133000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>125000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>138900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>157300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>180500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>178600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>182600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>189500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>192700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>191700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>196100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>193200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>187800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>200400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>91000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>89100</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5172,8 +5358,11 @@
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E81" s="3">
         <v>2900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2600</v>
-      </c>
-      <c r="M81" s="3">
-        <v>2500</v>
       </c>
       <c r="N81" s="3">
         <v>2500</v>
       </c>
       <c r="O81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P81" s="3">
         <v>5000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-12500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1200</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5438,7 +5637,7 @@
         <v>300</v>
       </c>
       <c r="I83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J83" s="3">
         <v>400</v>
@@ -5456,10 +5655,10 @@
         <v>400</v>
       </c>
       <c r="O83" s="3">
+        <v>400</v>
+      </c>
+      <c r="P83" s="3">
         <v>700</v>
-      </c>
-      <c r="P83" s="3">
-        <v>300</v>
       </c>
       <c r="Q83" s="3">
         <v>300</v>
@@ -5479,8 +5678,8 @@
       <c r="V83" s="3">
         <v>300</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
+      <c r="W83" s="3">
+        <v>300</v>
       </c>
       <c r="X83" s="3" t="s">
         <v>3</v>
@@ -5488,8 +5687,11 @@
       <c r="Y83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3600</v>
+        <v>2800</v>
       </c>
       <c r="E89" s="3">
         <v>3600</v>
       </c>
       <c r="F89" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G89" s="3">
         <v>4600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>6100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-13000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>9000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>7600</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6161,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
       <c r="I91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-300</v>
       </c>
       <c r="R91" s="3">
         <v>-300</v>
       </c>
       <c r="S91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="T91" s="3">
         <v>-200</v>
       </c>
       <c r="U91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V91" s="3">
         <v>-300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6381,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-50800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-27900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-45300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-18300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-36400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-16100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-36200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-42600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-91300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-42100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-84700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-34000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-26300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-35400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-28900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-16200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-29900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-24500</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6261,7 +6495,7 @@
         <v>-1500</v>
       </c>
       <c r="E96" s="3">
-        <v>-1100</v>
+        <v>-1500</v>
       </c>
       <c r="F96" s="3">
         <v>-1100</v>
@@ -6273,19 +6507,19 @@
         <v>-1100</v>
       </c>
       <c r="I96" s="3">
-        <v>-800</v>
+        <v>-1100</v>
       </c>
       <c r="J96" s="3">
         <v>-800</v>
       </c>
       <c r="K96" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L96" s="3">
         <v>-6800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-800</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-600</v>
       </c>
       <c r="N96" s="3">
         <v>-600</v>
@@ -6294,7 +6528,7 @@
         <v>-600</v>
       </c>
       <c r="P96" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="Q96" s="3">
         <v>0</v>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +6779,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E100" s="3">
         <v>25700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>38300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>18700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>25200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>8700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>52400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>39600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>42900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>61300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>20800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-87200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>147200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>16100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>22300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-128100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>197500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>30500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>33400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>10200</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +6927,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-48400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>16800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>32100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-93900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>70000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-161000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>171500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>16000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>5300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-6700</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RMBI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RMBI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
   <si>
     <t>RMBI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,186 +665,193 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E8" s="3">
         <v>16200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>15200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>21100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>8600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>8200</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -917,8 +924,11 @@
       <c r="Z9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1001,11 @@
       <c r="Z10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,8 +1032,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1093,8 +1107,11 @@
       <c r="Z12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1184,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1241,8 +1261,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1338,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1366,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E17" s="3">
         <v>6900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2900</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2100</v>
       </c>
       <c r="I17" s="3">
         <v>2100</v>
       </c>
       <c r="J17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2800</v>
-      </c>
-      <c r="R17" s="3">
-        <v>3600</v>
       </c>
       <c r="S17" s="3">
         <v>3600</v>
       </c>
       <c r="T17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="U17" s="3">
         <v>3400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2100</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E18" s="3">
         <v>9300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>9700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>10300</v>
       </c>
       <c r="H18" s="3">
         <v>10300</v>
       </c>
       <c r="I18" s="3">
+        <v>10300</v>
+      </c>
+      <c r="J18" s="3">
         <v>9800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9500</v>
-      </c>
-      <c r="L18" s="3">
-        <v>8600</v>
       </c>
       <c r="M18" s="3">
         <v>8600</v>
       </c>
       <c r="N18" s="3">
+        <v>8600</v>
+      </c>
+      <c r="O18" s="3">
         <v>7800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>14500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>7000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>6600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>6800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>6500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>6400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>6100</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,156 +1549,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-6100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-6600</v>
       </c>
       <c r="G20" s="3">
         <v>-6600</v>
       </c>
       <c r="H20" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="I20" s="3">
         <v>-5900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-6200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-24200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-11300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-6700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-4900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-5100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-4500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-4700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-4600</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E21" s="3">
         <v>3500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>6900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-17000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>600</v>
-      </c>
-      <c r="U21" s="3">
-        <v>2000</v>
       </c>
       <c r="V21" s="3">
         <v>2000</v>
       </c>
       <c r="W21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="X21" s="3">
         <v>2300</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="3">
         <v>1800</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1738,111 +1778,117 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E23" s="3">
         <v>3200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3200</v>
-      </c>
-      <c r="N23" s="3">
-        <v>3100</v>
       </c>
       <c r="O23" s="3">
         <v>3100</v>
       </c>
       <c r="P23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>6200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-17200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>300</v>
-      </c>
-      <c r="U23" s="3">
-        <v>1700</v>
       </c>
       <c r="V23" s="3">
         <v>1700</v>
       </c>
       <c r="W23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="X23" s="3">
         <v>2000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1500</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E24" s="3">
         <v>500</v>
       </c>
       <c r="F24" s="3">
+        <v>500</v>
+      </c>
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
-      </c>
-      <c r="L24" s="3">
-        <v>600</v>
       </c>
       <c r="M24" s="3">
         <v>600</v>
@@ -1854,40 +1900,43 @@
         <v>600</v>
       </c>
       <c r="P24" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q24" s="3">
         <v>1300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-4700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-900</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="V24" s="3">
         <v>300</v>
       </c>
       <c r="W24" s="3">
+        <v>300</v>
+      </c>
+      <c r="X24" s="3">
         <v>400</v>
-      </c>
-      <c r="X24" s="3">
-        <v>300</v>
       </c>
       <c r="Y24" s="3">
         <v>300</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2009,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E26" s="3">
         <v>2700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2600</v>
-      </c>
-      <c r="N26" s="3">
-        <v>2500</v>
       </c>
       <c r="O26" s="3">
         <v>2500</v>
       </c>
       <c r="P26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q26" s="3">
         <v>5000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-12500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1200</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E27" s="3">
         <v>2700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2600</v>
-      </c>
-      <c r="N27" s="3">
-        <v>2500</v>
       </c>
       <c r="O27" s="3">
         <v>2500</v>
       </c>
       <c r="P27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q27" s="3">
         <v>5000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-12500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1200</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,156 +2471,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E32" s="3">
         <v>6100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>6600</v>
       </c>
       <c r="G32" s="3">
         <v>6600</v>
       </c>
       <c r="H32" s="3">
+        <v>6600</v>
+      </c>
+      <c r="I32" s="3">
         <v>5900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>6200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>8300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>24200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>11300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>6700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>4900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>5100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>4500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>4700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>4600</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E33" s="3">
         <v>2700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2600</v>
-      </c>
-      <c r="N33" s="3">
-        <v>2500</v>
       </c>
       <c r="O33" s="3">
         <v>2500</v>
       </c>
       <c r="P33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q33" s="3">
         <v>5000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-12500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1200</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2702,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E35" s="3">
         <v>2700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2600</v>
-      </c>
-      <c r="N35" s="3">
-        <v>2500</v>
       </c>
       <c r="O35" s="3">
         <v>2500</v>
       </c>
       <c r="P35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q35" s="3">
         <v>5000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-12500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1200</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,68 +2921,69 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E41" s="3">
         <v>9500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>30800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8900</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2909,68 +2996,71 @@
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E42" s="3">
         <v>19300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>18300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>18600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>16500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>15600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>21300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>24600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>18100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>14700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>60900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>41100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>14200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>88900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>25600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>39100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>38500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>201900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>29000</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2983,8 +3073,11 @@
       <c r="Z42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3057,8 +3150,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3131,8 +3227,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3205,8 +3304,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3279,8 +3381,11 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,68 +3458,71 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13500</v>
+        <v>13300</v>
       </c>
       <c r="E48" s="3">
         <v>13500</v>
       </c>
       <c r="F48" s="3">
+        <v>13500</v>
+      </c>
+      <c r="G48" s="3">
         <v>13700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>14000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>14000</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3427,8 +3535,11 @@
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3442,10 +3553,10 @@
         <v>2000</v>
       </c>
       <c r="G49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H49" s="3">
         <v>1700</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1600</v>
       </c>
       <c r="I49" s="3">
         <v>1600</v>
@@ -3454,31 +3565,31 @@
         <v>1600</v>
       </c>
       <c r="K49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L49" s="3">
         <v>1700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1900</v>
-      </c>
-      <c r="M49" s="3">
-        <v>1700</v>
       </c>
       <c r="N49" s="3">
         <v>1700</v>
       </c>
       <c r="O49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P49" s="3">
         <v>1500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1000</v>
-      </c>
-      <c r="S49" s="3">
-        <v>1200</v>
       </c>
       <c r="T49" s="3">
         <v>1200</v>
@@ -3486,8 +3597,8 @@
       <c r="U49" s="3">
         <v>1200</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>3</v>
+      <c r="V49" s="3">
+        <v>1200</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>3</v>
@@ -3501,8 +3612,11 @@
       <c r="Z49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,8 +3766,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3723,8 +3843,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,68 +3920,71 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1422900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1409200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1362200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1328600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1278600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1271600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1256100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1267600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1230700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1188500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1140900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1084200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1054900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1140200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1007600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>986000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>956200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1083000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>882800</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3871,8 +3997,11 @@
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,25 +4057,26 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E57" s="3">
         <v>3300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
@@ -3954,7 +4085,7 @@
         <v>300</v>
       </c>
       <c r="K57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
@@ -3969,26 +4100,26 @@
         <v>200</v>
       </c>
       <c r="P57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>700</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4001,8 +4132,11 @@
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4075,8 +4209,11 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4149,8 +4286,11 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4223,37 +4363,40 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>700</v>
+      </c>
+      <c r="E61" s="3">
         <v>600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>700</v>
-      </c>
-      <c r="F61" s="3">
-        <v>600</v>
       </c>
       <c r="G61" s="3">
         <v>600</v>
       </c>
       <c r="H61" s="3">
+        <v>600</v>
+      </c>
+      <c r="I61" s="3">
         <v>500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>600</v>
-      </c>
-      <c r="L61" s="3">
-        <v>500</v>
       </c>
       <c r="M61" s="3">
         <v>500</v>
@@ -4262,19 +4405,19 @@
         <v>500</v>
       </c>
       <c r="O61" s="3">
+        <v>500</v>
+      </c>
+      <c r="P61" s="3">
         <v>600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>500</v>
-      </c>
-      <c r="S61" s="3">
-        <v>600</v>
       </c>
       <c r="T61" s="3">
         <v>600</v>
@@ -4283,7 +4426,7 @@
         <v>600</v>
       </c>
       <c r="V61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="W61" s="3">
         <v>0</v>
@@ -4297,34 +4440,37 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
       <c r="K62" s="3">
-        <v>17500</v>
+        <v>0</v>
       </c>
       <c r="L62" s="3">
         <v>17500</v>
@@ -4347,8 +4493,8 @@
       <c r="R62" s="3">
         <v>17500</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
+      <c r="S62" s="3">
+        <v>17500</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
@@ -4362,8 +4508,8 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="X62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
@@ -4371,8 +4517,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,68 +4748,71 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1304300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1278400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1226000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1195600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1153600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1132700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1098800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1087200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1052100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1005900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>951400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>891500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>863200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>944100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>814400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>798300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>755900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>992000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>793700</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4667,8 +4825,11 @@
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,68 +5162,71 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>88000</v>
+      </c>
+      <c r="E72" s="3">
         <v>87500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>86300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>88700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>86500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>84400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>82000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>80200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>78200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>76000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>80000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>78300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>76400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>74400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>72600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>70100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>82700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>79200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>78900</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5065,8 +5239,11 @@
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,68 +5470,71 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>118600</v>
+      </c>
+      <c r="E76" s="3">
         <v>130800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>136100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>133000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>125000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>138900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>157300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>180500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>178600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>182600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>189500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>192700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>191700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>196100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>193200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>187800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>200400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>91000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>89100</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5361,8 +5547,11 @@
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5624,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E81" s="3">
         <v>2700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2600</v>
-      </c>
-      <c r="N81" s="3">
-        <v>2500</v>
       </c>
       <c r="O81" s="3">
         <v>2500</v>
       </c>
       <c r="P81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q81" s="3">
         <v>5000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-12500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1200</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +5814,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5640,7 +5839,7 @@
         <v>300</v>
       </c>
       <c r="J83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K83" s="3">
         <v>400</v>
@@ -5658,10 +5857,10 @@
         <v>400</v>
       </c>
       <c r="P83" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q83" s="3">
         <v>700</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>300</v>
       </c>
       <c r="R83" s="3">
         <v>300</v>
@@ -5681,8 +5880,8 @@
       <c r="W83" s="3">
         <v>300</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>3</v>
+      <c r="X83" s="3">
+        <v>300</v>
       </c>
       <c r="Y83" s="3" t="s">
         <v>3</v>
@@ -5690,8 +5889,11 @@
       <c r="Z83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6274,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E89" s="3">
         <v>2800</v>
-      </c>
-      <c r="E89" s="3">
-        <v>3600</v>
       </c>
       <c r="F89" s="3">
         <v>3600</v>
       </c>
       <c r="G89" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H89" s="3">
         <v>4600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-13000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>9000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>7600</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,82 +6382,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-300</v>
       </c>
       <c r="S91" s="3">
         <v>-300</v>
       </c>
       <c r="T91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="U91" s="3">
         <v>-200</v>
       </c>
       <c r="V91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W91" s="3">
         <v>-300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-200</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6611,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-50800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-27900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-45300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-18300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-36400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-16100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-36200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-42600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-91300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-42100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-84700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-34000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-26300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-35400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-28900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-16200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-29900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-24500</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6719,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6498,7 +6732,7 @@
         <v>-1500</v>
       </c>
       <c r="F96" s="3">
-        <v>-1100</v>
+        <v>-1500</v>
       </c>
       <c r="G96" s="3">
         <v>-1100</v>
@@ -6510,19 +6744,19 @@
         <v>-1100</v>
       </c>
       <c r="J96" s="3">
-        <v>-800</v>
+        <v>-1100</v>
       </c>
       <c r="K96" s="3">
         <v>-800</v>
       </c>
       <c r="L96" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M96" s="3">
         <v>-6800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-800</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-600</v>
       </c>
       <c r="O96" s="3">
         <v>-600</v>
@@ -6531,7 +6765,7 @@
         <v>-600</v>
       </c>
       <c r="Q96" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="R96" s="3">
         <v>0</v>
@@ -6560,8 +6794,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,82 +7025,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E100" s="3">
         <v>48000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>25700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>38300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>18700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>25200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>8700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>52400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>39600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>42900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>61300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>20800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-87200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>147200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>16100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>22300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-128100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>197500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>30500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>33400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>10200</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,78 +7179,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-48400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>16800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>32100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-93900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>70000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-13100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-161000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>171500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>16000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>5300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-6700</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
